--- a/REGULAR/OJT/NEW DONE/DIMARANAN, GREGORIA.xlsx
+++ b/REGULAR/OJT/NEW DONE/DIMARANAN, GREGORIA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="463">
   <si>
     <t>PERIOD</t>
   </si>
@@ -162,9 +162,6 @@
     <t>SL EARNED</t>
   </si>
   <si>
-    <t>DIMARANAN, GREGORIA</t>
-  </si>
-  <si>
     <t>PERMANENT</t>
   </si>
   <si>
@@ -1420,6 +1417,12 @@
   </si>
   <si>
     <t>4/11-5/12/2023</t>
+  </si>
+  <si>
+    <t>DIMARANAN, GREGORIA CARAAN</t>
+  </si>
+  <si>
+    <t>5/15,16/2023</t>
   </si>
 </sst>
 </file>
@@ -2303,7 +2306,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2346,7 +2349,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2410,7 +2413,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2470,7 +2473,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2536,7 +2539,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2599,7 +2602,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2697,7 +2700,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2756,7 +2759,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2821,7 +2824,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2864,7 +2867,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2939,7 +2942,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3125,7 +3128,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3191,7 +3194,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3249,7 +3252,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3315,7 +3318,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3371,7 +3374,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3446,7 +3449,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3489,7 +3492,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3555,7 +3558,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3611,7 +3614,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3709,7 +3712,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3772,7 +3775,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4221,8 +4224,8 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A555" activePane="bottomLeft"/>
-      <selection activeCell="K8" sqref="A8:K8"/>
-      <selection pane="bottomLeft" activeCell="H566" sqref="H566"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection pane="bottomLeft" activeCell="B567" sqref="B567"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4245,7 +4248,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>42</v>
+        <v>461</v>
       </c>
       <c r="C2" s="57"/>
       <c r="D2" s="21" t="s">
@@ -4284,14 +4287,14 @@
         <v>16</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="57"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G4" s="62"/>
       <c r="H4" s="26" t="s">
@@ -4393,14 +4396,14 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>53.125</v>
+        <v>51.125</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B10" s="51"/>
       <c r="C10" s="13"/>
@@ -4418,7 +4421,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="13">
@@ -4438,7 +4441,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="13">
@@ -4458,10 +4461,10 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C13" s="13">
         <v>1.25</v>
@@ -4482,7 +4485,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="13"/>
@@ -4503,7 +4506,7 @@
         <v>35796</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C15" s="13">
         <v>1.25</v>
@@ -4528,7 +4531,7 @@
         <v>35827</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C16" s="13">
         <v>1.25</v>
@@ -4553,7 +4556,7 @@
         <v>35855</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C17" s="13">
         <v>1.25</v>
@@ -4578,7 +4581,7 @@
         <v>35886</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C18" s="13">
         <v>1.25</v>
@@ -4624,7 +4627,7 @@
         <v>35947</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C20" s="13">
         <v>1.25</v>
@@ -4646,7 +4649,7 @@
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23"/>
       <c r="B21" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="39">
@@ -4669,7 +4672,7 @@
         <v>35977</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C22" s="13">
         <v>1.25</v>
@@ -4694,7 +4697,7 @@
         <v>36008</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C23" s="13">
         <v>1.25</v>
@@ -4719,7 +4722,7 @@
         <v>36039</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" s="13">
         <v>1.25</v>
@@ -4737,13 +4740,13 @@
       <c r="I24" s="13"/>
       <c r="J24" s="11"/>
       <c r="K24" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23"/>
       <c r="B25" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="39">
@@ -4766,7 +4769,7 @@
         <v>36069</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C26" s="13">
         <v>1.25</v>
@@ -4784,7 +4787,7 @@
       <c r="I26" s="13"/>
       <c r="J26" s="11"/>
       <c r="K26" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -4814,7 +4817,7 @@
         <v>36130</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C28" s="13">
         <v>1.25</v>
@@ -4832,12 +4835,12 @@
       <c r="I28" s="13"/>
       <c r="J28" s="11"/>
       <c r="K28" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="48" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -4947,7 +4950,7 @@
         <v>36281</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C34" s="13">
         <v>1.25</v>
@@ -4971,7 +4974,7 @@
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23"/>
       <c r="B35" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="39"/>
@@ -4987,13 +4990,13 @@
       <c r="I35" s="13"/>
       <c r="J35" s="11"/>
       <c r="K35" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="23"/>
       <c r="B36" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="39">
@@ -5009,7 +5012,7 @@
       <c r="I36" s="13"/>
       <c r="J36" s="11"/>
       <c r="K36" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -5102,7 +5105,7 @@
         <v>36434</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C41" s="13">
         <v>1.25</v>
@@ -5124,7 +5127,7 @@
       </c>
       <c r="J41" s="11"/>
       <c r="K41" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -5133,7 +5136,7 @@
         <v>36465</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C42" s="13">
         <v>1.25</v>
@@ -5151,7 +5154,7 @@
       <c r="I42" s="13"/>
       <c r="J42" s="11"/>
       <c r="K42" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -5160,7 +5163,7 @@
         <v>36495</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C43" s="13">
         <v>1.25</v>
@@ -5184,7 +5187,7 @@
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="23"/>
       <c r="B44" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="39">
@@ -5200,12 +5203,12 @@
       <c r="I44" s="13"/>
       <c r="J44" s="11"/>
       <c r="K44" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="48" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -5287,7 +5290,7 @@
       <c r="I48" s="13"/>
       <c r="J48" s="11"/>
       <c r="K48" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -5310,7 +5313,7 @@
       <c r="I49" s="13"/>
       <c r="J49" s="11"/>
       <c r="K49" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -5424,7 +5427,7 @@
         <v>36800</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C55" s="13">
         <v>1.25</v>
@@ -5442,7 +5445,7 @@
       <c r="I55" s="13"/>
       <c r="J55" s="11"/>
       <c r="K55" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -5451,7 +5454,7 @@
         <v>36831</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C56" s="13">
         <v>1.25</v>
@@ -5469,7 +5472,7 @@
       <c r="I56" s="13"/>
       <c r="J56" s="11"/>
       <c r="K56" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -5492,12 +5495,12 @@
       <c r="I57" s="13"/>
       <c r="J57" s="11"/>
       <c r="K57" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -5565,7 +5568,7 @@
         <v>36951</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C61" s="13">
         <v>1.25</v>
@@ -5583,7 +5586,7 @@
       <c r="I61" s="13"/>
       <c r="J61" s="11"/>
       <c r="K61" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -5601,7 +5604,7 @@
       <c r="I62" s="13"/>
       <c r="J62" s="11"/>
       <c r="K62" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -5619,7 +5622,7 @@
       <c r="I63" s="13"/>
       <c r="J63" s="11"/>
       <c r="K63" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -5754,7 +5757,7 @@
         <v>37165</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C70" s="13">
         <v>1.25</v>
@@ -5772,13 +5775,13 @@
       <c r="I70" s="13"/>
       <c r="J70" s="11"/>
       <c r="K70" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="23"/>
       <c r="B71" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C71" s="13"/>
       <c r="D71" s="39"/>
@@ -5794,7 +5797,7 @@
       <c r="I71" s="13"/>
       <c r="J71" s="11"/>
       <c r="K71" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -5803,7 +5806,7 @@
         <v>37196</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C72" s="13">
         <v>1.25</v>
@@ -5821,7 +5824,7 @@
       <c r="I72" s="13"/>
       <c r="J72" s="11"/>
       <c r="K72" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -5847,7 +5850,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -5915,7 +5918,7 @@
         <v>37316</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C77" s="13">
         <v>1.25</v>
@@ -5933,7 +5936,7 @@
       <c r="I77" s="13"/>
       <c r="J77" s="11"/>
       <c r="K77" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -5956,7 +5959,7 @@
       <c r="I78" s="13"/>
       <c r="J78" s="11"/>
       <c r="K78" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -5965,7 +5968,7 @@
         <v>37377</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C79" s="13">
         <v>1.25</v>
@@ -5983,7 +5986,7 @@
       <c r="I79" s="13"/>
       <c r="J79" s="11"/>
       <c r="K79" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -5992,7 +5995,7 @@
         <v>37408</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C80" s="13">
         <v>1.25</v>
@@ -6010,13 +6013,13 @@
       <c r="I80" s="13"/>
       <c r="J80" s="11"/>
       <c r="K80" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="23"/>
       <c r="B81" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C81" s="13"/>
       <c r="D81" s="39"/>
@@ -6032,7 +6035,7 @@
       <c r="I81" s="13"/>
       <c r="J81" s="11"/>
       <c r="K81" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -6041,7 +6044,7 @@
         <v>37438</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C82" s="13">
         <v>1.25</v>
@@ -6059,13 +6062,13 @@
       <c r="I82" s="13"/>
       <c r="J82" s="11"/>
       <c r="K82" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="23"/>
       <c r="B83" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C83" s="13"/>
       <c r="D83" s="39"/>
@@ -6081,13 +6084,13 @@
       <c r="I83" s="13"/>
       <c r="J83" s="11"/>
       <c r="K83" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="23"/>
       <c r="B84" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C84" s="13"/>
       <c r="D84" s="39"/>
@@ -6103,7 +6106,7 @@
       <c r="I84" s="13"/>
       <c r="J84" s="11"/>
       <c r="K84" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -6154,7 +6157,7 @@
         <v>37530</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C87" s="13">
         <v>1.25</v>
@@ -6172,13 +6175,13 @@
       <c r="I87" s="13"/>
       <c r="J87" s="11"/>
       <c r="K87" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="23"/>
       <c r="B88" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>
@@ -6194,7 +6197,7 @@
       <c r="I88" s="13"/>
       <c r="J88" s="11"/>
       <c r="K88" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -6203,7 +6206,7 @@
         <v>37561</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C89" s="13">
         <v>1.25</v>
@@ -6221,7 +6224,7 @@
       <c r="I89" s="13"/>
       <c r="J89" s="11"/>
       <c r="K89" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -6244,12 +6247,12 @@
       <c r="I90" s="13"/>
       <c r="J90" s="11"/>
       <c r="K90" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -6373,7 +6376,7 @@
       <c r="I96" s="13"/>
       <c r="J96" s="11"/>
       <c r="K96" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -6403,7 +6406,7 @@
         <v>37803</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C98" s="13">
         <v>1.25</v>
@@ -6421,13 +6424,13 @@
       <c r="I98" s="13"/>
       <c r="J98" s="11"/>
       <c r="K98" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="23"/>
       <c r="B99" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C99" s="13"/>
       <c r="D99" s="39">
@@ -6450,7 +6453,7 @@
         <v>37834</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C100" s="13">
         <v>1.25</v>
@@ -6466,7 +6469,7 @@
       <c r="I100" s="13"/>
       <c r="J100" s="11"/>
       <c r="K100" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -6496,7 +6499,7 @@
         <v>37895</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C102" s="13">
         <v>1.25</v>
@@ -6514,7 +6517,7 @@
       <c r="I102" s="13"/>
       <c r="J102" s="11"/>
       <c r="K102" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -6532,7 +6535,7 @@
       <c r="I103" s="13"/>
       <c r="J103" s="11"/>
       <c r="K103" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
@@ -6555,7 +6558,7 @@
       <c r="I104" s="13"/>
       <c r="J104" s="11"/>
       <c r="K104" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -6564,7 +6567,7 @@
         <v>37956</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C105" s="13">
         <v>1.25</v>
@@ -6582,13 +6585,13 @@
       <c r="I105" s="13"/>
       <c r="J105" s="11"/>
       <c r="K105" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="23"/>
       <c r="B106" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C106" s="13"/>
       <c r="D106" s="39">
@@ -6607,7 +6610,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="48" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -6654,7 +6657,7 @@
         <v>38018</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C109" s="13">
         <v>1.25</v>
@@ -6672,7 +6675,7 @@
       <c r="I109" s="13"/>
       <c r="J109" s="11"/>
       <c r="K109" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -6723,7 +6726,7 @@
         <v>38108</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C112" s="13">
         <v>1.25</v>
@@ -6741,7 +6744,7 @@
       <c r="I112" s="13"/>
       <c r="J112" s="11"/>
       <c r="K112" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -6771,7 +6774,7 @@
         <v>38169</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C114" s="13">
         <v>1.25</v>
@@ -6789,7 +6792,7 @@
       <c r="I114" s="13"/>
       <c r="J114" s="11"/>
       <c r="K114" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
@@ -6798,7 +6801,7 @@
         <v>38200</v>
       </c>
       <c r="B115" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C115" s="13">
         <v>1.25</v>
@@ -6846,7 +6849,7 @@
         <v>38261</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C117" s="13">
         <v>1.25</v>
@@ -6864,7 +6867,7 @@
       <c r="I117" s="13"/>
       <c r="J117" s="11"/>
       <c r="K117" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -6873,7 +6876,7 @@
         <v>38292</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C118" s="13">
         <v>1.25</v>
@@ -6891,7 +6894,7 @@
       <c r="I118" s="13"/>
       <c r="J118" s="11"/>
       <c r="K118" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
@@ -6900,7 +6903,7 @@
         <v>38322</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C119" s="13">
         <v>1.25</v>
@@ -6924,7 +6927,7 @@
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="23"/>
       <c r="B120" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C120" s="13"/>
       <c r="D120" s="39"/>
@@ -6938,13 +6941,13 @@
       <c r="I120" s="13"/>
       <c r="J120" s="11"/>
       <c r="K120" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="23"/>
       <c r="B121" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C121" s="13"/>
       <c r="D121" s="39">
@@ -6960,12 +6963,12 @@
       <c r="I121" s="13"/>
       <c r="J121" s="11"/>
       <c r="K121" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B122" s="54"/>
       <c r="C122" s="13"/>
@@ -6991,7 +6994,7 @@
         <v>38353</v>
       </c>
       <c r="B123" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C123" s="13">
         <v>1.25</v>
@@ -7009,7 +7012,7 @@
       <c r="I123" s="13"/>
       <c r="J123" s="11"/>
       <c r="K123" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -7018,7 +7021,7 @@
         <v>38384</v>
       </c>
       <c r="B124" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C124" s="13">
         <v>1.25</v>
@@ -7043,7 +7046,7 @@
         <v>38412</v>
       </c>
       <c r="B125" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C125" s="13">
         <v>1.25</v>
@@ -7061,7 +7064,7 @@
       <c r="I125" s="13"/>
       <c r="J125" s="11"/>
       <c r="K125" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
@@ -7079,13 +7082,13 @@
       <c r="I126" s="13"/>
       <c r="J126" s="11"/>
       <c r="K126" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="23"/>
       <c r="B127" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C127" s="13"/>
       <c r="D127" s="39"/>
@@ -7101,13 +7104,13 @@
       <c r="I127" s="13"/>
       <c r="J127" s="11"/>
       <c r="K127" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="23"/>
       <c r="B128" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C128" s="13"/>
       <c r="D128" s="39">
@@ -7151,7 +7154,7 @@
         <v>38473</v>
       </c>
       <c r="B130" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C130" s="13">
         <v>1.25</v>
@@ -7175,7 +7178,7 @@
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="23"/>
       <c r="B131" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C131" s="13"/>
       <c r="D131" s="39"/>
@@ -7191,7 +7194,7 @@
       <c r="I131" s="13"/>
       <c r="J131" s="11"/>
       <c r="K131" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
@@ -7200,7 +7203,7 @@
         <v>38504</v>
       </c>
       <c r="B132" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C132" s="13">
         <v>1.25</v>
@@ -7218,7 +7221,7 @@
       <c r="I132" s="13"/>
       <c r="J132" s="11"/>
       <c r="K132" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
@@ -7227,7 +7230,7 @@
         <v>38534</v>
       </c>
       <c r="B133" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C133" s="13">
         <v>1.25</v>
@@ -7252,7 +7255,7 @@
         <v>38565</v>
       </c>
       <c r="B134" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C134" s="13">
         <v>1.25</v>
@@ -7277,7 +7280,7 @@
         <v>38596</v>
       </c>
       <c r="B135" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C135" s="13">
         <v>1.25</v>
@@ -7295,7 +7298,7 @@
       <c r="I135" s="13"/>
       <c r="J135" s="11"/>
       <c r="K135" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
@@ -7325,7 +7328,7 @@
         <v>38657</v>
       </c>
       <c r="B137" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C137" s="13">
         <v>1.25</v>
@@ -7343,7 +7346,7 @@
       <c r="I137" s="13"/>
       <c r="J137" s="11"/>
       <c r="K137" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
@@ -7352,7 +7355,7 @@
         <v>38687</v>
       </c>
       <c r="B138" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C138" s="13">
         <v>1.25</v>
@@ -7376,7 +7379,7 @@
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="23"/>
       <c r="B139" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C139" s="13"/>
       <c r="D139" s="39"/>
@@ -7390,13 +7393,13 @@
       <c r="I139" s="13"/>
       <c r="J139" s="11"/>
       <c r="K139" s="49" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="23"/>
       <c r="B140" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C140" s="13"/>
       <c r="D140" s="39">
@@ -7412,12 +7415,12 @@
       <c r="I140" s="13"/>
       <c r="J140" s="11"/>
       <c r="K140" s="49" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="48" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -7443,7 +7446,7 @@
         <v>38718</v>
       </c>
       <c r="B142" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C142" s="13">
         <v>1.25</v>
@@ -7467,7 +7470,7 @@
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="23"/>
       <c r="B143" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C143" s="13"/>
       <c r="D143" s="39"/>
@@ -7483,7 +7486,7 @@
       <c r="I143" s="13"/>
       <c r="J143" s="11"/>
       <c r="K143" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
@@ -7492,7 +7495,7 @@
         <v>38749</v>
       </c>
       <c r="B144" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C144" s="13">
         <v>1.25</v>
@@ -7510,7 +7513,7 @@
       <c r="I144" s="13"/>
       <c r="J144" s="11"/>
       <c r="K144" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
@@ -7519,7 +7522,7 @@
         <v>38777</v>
       </c>
       <c r="B145" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C145" s="13">
         <v>1.25</v>
@@ -7535,7 +7538,7 @@
       <c r="I145" s="13"/>
       <c r="J145" s="11"/>
       <c r="K145" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
@@ -7544,7 +7547,7 @@
         <v>38808</v>
       </c>
       <c r="B146" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C146" s="13">
         <v>1.25</v>
@@ -7560,7 +7563,7 @@
       <c r="I146" s="13"/>
       <c r="J146" s="11"/>
       <c r="K146" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
@@ -7615,7 +7618,7 @@
         <v>38899</v>
       </c>
       <c r="B149" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C149" s="13">
         <v>1.25</v>
@@ -7633,13 +7636,13 @@
       <c r="I149" s="13"/>
       <c r="J149" s="11"/>
       <c r="K149" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="23"/>
       <c r="B150" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C150" s="13"/>
       <c r="D150" s="39">
@@ -7655,13 +7658,13 @@
       <c r="I150" s="13"/>
       <c r="J150" s="11"/>
       <c r="K150" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="23"/>
       <c r="B151" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C151" s="13"/>
       <c r="D151" s="39">
@@ -7684,7 +7687,7 @@
         <v>38930</v>
       </c>
       <c r="B152" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C152" s="13">
         <v>1.25</v>
@@ -7709,7 +7712,7 @@
         <v>38961</v>
       </c>
       <c r="B153" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C153" s="13">
         <v>1.25</v>
@@ -7727,13 +7730,13 @@
       <c r="I153" s="13"/>
       <c r="J153" s="11"/>
       <c r="K153" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="23"/>
       <c r="B154" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C154" s="13"/>
       <c r="D154" s="39">
@@ -7756,7 +7759,7 @@
         <v>38991</v>
       </c>
       <c r="B155" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C155" s="13">
         <v>1.25</v>
@@ -7774,7 +7777,7 @@
       <c r="I155" s="13"/>
       <c r="J155" s="11"/>
       <c r="K155" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
@@ -7783,7 +7786,7 @@
         <v>39022</v>
       </c>
       <c r="B156" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C156" s="13">
         <v>1.25</v>
@@ -7801,13 +7804,13 @@
       <c r="I156" s="13"/>
       <c r="J156" s="11"/>
       <c r="K156" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="23"/>
       <c r="B157" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C157" s="13"/>
       <c r="D157" s="39"/>
@@ -7821,13 +7824,13 @@
       <c r="I157" s="13"/>
       <c r="J157" s="11"/>
       <c r="K157" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="23"/>
       <c r="B158" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C158" s="13"/>
       <c r="D158" s="39">
@@ -7850,7 +7853,7 @@
         <v>39052</v>
       </c>
       <c r="B159" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C159" s="13">
         <v>1.25</v>
@@ -7874,7 +7877,7 @@
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="23"/>
       <c r="B160" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C160" s="13"/>
       <c r="D160" s="39"/>
@@ -7890,12 +7893,12 @@
       <c r="I160" s="13"/>
       <c r="J160" s="11"/>
       <c r="K160" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="48" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B161" s="20"/>
       <c r="C161" s="13"/>
@@ -7921,7 +7924,7 @@
         <v>39083</v>
       </c>
       <c r="B162" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C162" s="13">
         <v>1.25</v>
@@ -7939,13 +7942,13 @@
       <c r="I162" s="13"/>
       <c r="J162" s="11"/>
       <c r="K162" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="23"/>
       <c r="B163" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C163" s="13"/>
       <c r="D163" s="39"/>
@@ -7961,13 +7964,13 @@
       <c r="I163" s="13"/>
       <c r="J163" s="11"/>
       <c r="K163" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="23"/>
       <c r="B164" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C164" s="13"/>
       <c r="D164" s="39">
@@ -7990,7 +7993,7 @@
         <v>39114</v>
       </c>
       <c r="B165" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C165" s="13">
         <v>1.25</v>
@@ -8015,7 +8018,7 @@
         <v>39142</v>
       </c>
       <c r="B166" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C166" s="13">
         <v>1.25</v>
@@ -8033,13 +8036,13 @@
       <c r="I166" s="13"/>
       <c r="J166" s="11"/>
       <c r="K166" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="23"/>
       <c r="B167" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C167" s="13"/>
       <c r="D167" s="39"/>
@@ -8055,13 +8058,13 @@
       <c r="I167" s="13"/>
       <c r="J167" s="11"/>
       <c r="K167" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="23"/>
       <c r="B168" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C168" s="13"/>
       <c r="D168" s="39"/>
@@ -8077,13 +8080,13 @@
       <c r="I168" s="13"/>
       <c r="J168" s="11"/>
       <c r="K168" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="23"/>
       <c r="B169" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C169" s="13"/>
       <c r="D169" s="39"/>
@@ -8105,7 +8108,7 @@
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="23"/>
       <c r="B170" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C170" s="13"/>
       <c r="D170" s="39">
@@ -8128,7 +8131,7 @@
         <v>39173</v>
       </c>
       <c r="B171" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C171" s="13">
         <v>1.25</v>
@@ -8146,13 +8149,13 @@
       <c r="I171" s="13"/>
       <c r="J171" s="11"/>
       <c r="K171" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="23"/>
       <c r="B172" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C172" s="13"/>
       <c r="D172" s="39"/>
@@ -8168,13 +8171,13 @@
       <c r="I172" s="13"/>
       <c r="J172" s="11"/>
       <c r="K172" s="20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="23"/>
       <c r="B173" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C173" s="13"/>
       <c r="D173" s="39">
@@ -8190,13 +8193,13 @@
       <c r="I173" s="13"/>
       <c r="J173" s="11"/>
       <c r="K173" s="20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="23"/>
       <c r="B174" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C174" s="13"/>
       <c r="D174" s="39"/>
@@ -8214,7 +8217,7 @@
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="23"/>
       <c r="B175" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C175" s="13"/>
       <c r="D175" s="39">
@@ -8237,7 +8240,7 @@
         <v>39203</v>
       </c>
       <c r="B176" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C176" s="13">
         <v>1.25</v>
@@ -8255,13 +8258,13 @@
       <c r="I176" s="13"/>
       <c r="J176" s="11"/>
       <c r="K176" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="23"/>
       <c r="B177" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C177" s="13"/>
       <c r="D177" s="39"/>
@@ -8277,13 +8280,13 @@
       <c r="I177" s="13"/>
       <c r="J177" s="11"/>
       <c r="K177" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="23"/>
       <c r="B178" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C178" s="13"/>
       <c r="D178" s="39">
@@ -8306,7 +8309,7 @@
         <v>39234</v>
       </c>
       <c r="B179" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C179" s="13">
         <v>1.25</v>
@@ -8324,13 +8327,13 @@
       <c r="I179" s="13"/>
       <c r="J179" s="11"/>
       <c r="K179" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="23"/>
       <c r="B180" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C180" s="13"/>
       <c r="D180" s="39"/>
@@ -8346,13 +8349,13 @@
       <c r="I180" s="13"/>
       <c r="J180" s="11"/>
       <c r="K180" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="23"/>
       <c r="B181" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C181" s="13"/>
       <c r="D181" s="39">
@@ -8375,7 +8378,7 @@
         <v>39264</v>
       </c>
       <c r="B182" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C182" s="13">
         <v>1.25</v>
@@ -8399,7 +8402,7 @@
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="23"/>
       <c r="B183" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C183" s="13"/>
       <c r="D183" s="39"/>
@@ -8415,13 +8418,13 @@
       <c r="I183" s="13"/>
       <c r="J183" s="11"/>
       <c r="K183" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="23"/>
       <c r="B184" s="20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C184" s="13"/>
       <c r="D184" s="39">
@@ -8444,7 +8447,7 @@
         <v>39295</v>
       </c>
       <c r="B185" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C185" s="13">
         <v>1.25</v>
@@ -8469,7 +8472,7 @@
         <v>39326</v>
       </c>
       <c r="B186" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C186" s="13">
         <v>1.25</v>
@@ -8487,13 +8490,13 @@
       <c r="I186" s="13"/>
       <c r="J186" s="11"/>
       <c r="K186" s="20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="23"/>
       <c r="B187" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C187" s="13"/>
       <c r="D187" s="39">
@@ -8509,7 +8512,7 @@
       <c r="I187" s="13"/>
       <c r="J187" s="11"/>
       <c r="K187" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
@@ -8518,7 +8521,7 @@
         <v>39356</v>
       </c>
       <c r="B188" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C188" s="13">
         <v>1.25</v>
@@ -8536,13 +8539,13 @@
       <c r="I188" s="13"/>
       <c r="J188" s="11"/>
       <c r="K188" s="20" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="23"/>
       <c r="B189" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C189" s="13"/>
       <c r="D189" s="39">
@@ -8558,13 +8561,13 @@
       <c r="I189" s="13"/>
       <c r="J189" s="11"/>
       <c r="K189" s="20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="23"/>
       <c r="B190" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C190" s="13"/>
       <c r="D190" s="39">
@@ -8587,7 +8590,7 @@
         <v>39387</v>
       </c>
       <c r="B191" s="20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C191" s="13">
         <v>1.25</v>
@@ -8612,7 +8615,7 @@
         <v>39417</v>
       </c>
       <c r="B192" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C192" s="13">
         <v>1.25</v>
@@ -8630,13 +8633,13 @@
       <c r="I192" s="13"/>
       <c r="J192" s="11"/>
       <c r="K192" s="20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="23"/>
       <c r="B193" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C193" s="13"/>
       <c r="D193" s="39"/>
@@ -8650,13 +8653,13 @@
       <c r="I193" s="13"/>
       <c r="J193" s="11"/>
       <c r="K193" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="23"/>
       <c r="B194" s="20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C194" s="13"/>
       <c r="D194" s="39">
@@ -8675,7 +8678,7 @@
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="48" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B195" s="20"/>
       <c r="C195" s="13"/>
@@ -8701,7 +8704,7 @@
         <v>39448</v>
       </c>
       <c r="B196" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C196" s="13">
         <v>1.25</v>
@@ -8719,13 +8722,13 @@
       <c r="I196" s="13"/>
       <c r="J196" s="11"/>
       <c r="K196" s="20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="23"/>
       <c r="B197" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C197" s="13"/>
       <c r="D197" s="39">
@@ -8741,13 +8744,13 @@
       <c r="I197" s="13"/>
       <c r="J197" s="11"/>
       <c r="K197" s="20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="23"/>
       <c r="B198" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C198" s="13"/>
       <c r="D198" s="39">
@@ -8770,7 +8773,7 @@
         <v>39479</v>
       </c>
       <c r="B199" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C199" s="13">
         <v>1.25</v>
@@ -8788,13 +8791,13 @@
       <c r="I199" s="13"/>
       <c r="J199" s="11"/>
       <c r="K199" s="20" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="23"/>
       <c r="B200" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C200" s="13"/>
       <c r="D200" s="39"/>
@@ -8810,13 +8813,13 @@
       <c r="I200" s="13"/>
       <c r="J200" s="11"/>
       <c r="K200" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="23"/>
       <c r="B201" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C201" s="13"/>
       <c r="D201" s="39">
@@ -8839,7 +8842,7 @@
         <v>39508</v>
       </c>
       <c r="B202" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C202" s="13">
         <v>1.25</v>
@@ -8855,13 +8858,13 @@
       <c r="I202" s="13"/>
       <c r="J202" s="11"/>
       <c r="K202" s="20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="23"/>
       <c r="B203" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C203" s="13"/>
       <c r="D203" s="39">
@@ -8877,13 +8880,13 @@
       <c r="I203" s="13"/>
       <c r="J203" s="11"/>
       <c r="K203" s="20" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="23"/>
       <c r="B204" s="20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C204" s="13"/>
       <c r="D204" s="39">
@@ -8906,7 +8909,7 @@
         <v>39539</v>
       </c>
       <c r="B205" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C205" s="13">
         <v>1.25</v>
@@ -8924,13 +8927,13 @@
       <c r="I205" s="13"/>
       <c r="J205" s="11"/>
       <c r="K205" s="20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="23"/>
       <c r="B206" s="20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C206" s="13"/>
       <c r="D206" s="39">
@@ -8953,7 +8956,7 @@
         <v>39569</v>
       </c>
       <c r="B207" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C207" s="13">
         <v>1.25</v>
@@ -8971,13 +8974,13 @@
       <c r="I207" s="13"/>
       <c r="J207" s="11"/>
       <c r="K207" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="23"/>
       <c r="B208" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C208" s="13"/>
       <c r="D208" s="39"/>
@@ -8993,13 +8996,13 @@
       <c r="I208" s="13"/>
       <c r="J208" s="11"/>
       <c r="K208" s="20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="23"/>
       <c r="B209" s="20" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C209" s="13"/>
       <c r="D209" s="39">
@@ -9022,7 +9025,7 @@
         <v>39600</v>
       </c>
       <c r="B210" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C210" s="13">
         <v>1.25</v>
@@ -9040,13 +9043,13 @@
       <c r="I210" s="13"/>
       <c r="J210" s="11"/>
       <c r="K210" s="20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="23"/>
       <c r="B211" s="20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C211" s="13"/>
       <c r="D211" s="39">
@@ -9069,7 +9072,7 @@
         <v>39630</v>
       </c>
       <c r="B212" s="20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C212" s="13">
         <v>1.25</v>
@@ -9094,7 +9097,7 @@
         <v>39661</v>
       </c>
       <c r="B213" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C213" s="13">
         <v>1.25</v>
@@ -9112,13 +9115,13 @@
       <c r="I213" s="13"/>
       <c r="J213" s="11"/>
       <c r="K213" s="20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="23"/>
       <c r="B214" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C214" s="13"/>
       <c r="D214" s="39"/>
@@ -9134,13 +9137,13 @@
       <c r="I214" s="13"/>
       <c r="J214" s="11"/>
       <c r="K214" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="23"/>
       <c r="B215" s="20" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C215" s="13"/>
       <c r="D215" s="39">
@@ -9163,7 +9166,7 @@
         <v>39692</v>
       </c>
       <c r="B216" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C216" s="13">
         <v>1.25</v>
@@ -9187,7 +9190,7 @@
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="23"/>
       <c r="B217" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C217" s="13"/>
       <c r="D217" s="39"/>
@@ -9201,13 +9204,13 @@
       <c r="I217" s="13"/>
       <c r="J217" s="11"/>
       <c r="K217" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="23"/>
       <c r="B218" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C218" s="13"/>
       <c r="D218" s="39"/>
@@ -9223,13 +9226,13 @@
       <c r="I218" s="13"/>
       <c r="J218" s="11"/>
       <c r="K218" s="20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="23"/>
       <c r="B219" s="20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C219" s="13"/>
       <c r="D219" s="39">
@@ -9252,7 +9255,7 @@
         <v>39722</v>
       </c>
       <c r="B220" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C220" s="13">
         <v>1.25</v>
@@ -9270,13 +9273,13 @@
       <c r="I220" s="13"/>
       <c r="J220" s="11"/>
       <c r="K220" s="20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="23"/>
       <c r="B221" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C221" s="13"/>
       <c r="D221" s="39"/>
@@ -9292,13 +9295,13 @@
       <c r="I221" s="13"/>
       <c r="J221" s="11"/>
       <c r="K221" s="20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="23"/>
       <c r="B222" s="20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C222" s="13"/>
       <c r="D222" s="39">
@@ -9321,7 +9324,7 @@
         <v>39753</v>
       </c>
       <c r="B223" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C223" s="13">
         <v>1.25</v>
@@ -9339,13 +9342,13 @@
       <c r="I223" s="13"/>
       <c r="J223" s="11"/>
       <c r="K223" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="23"/>
       <c r="B224" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C224" s="13"/>
       <c r="D224" s="39"/>
@@ -9361,13 +9364,13 @@
       <c r="I224" s="13"/>
       <c r="J224" s="11"/>
       <c r="K224" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="23"/>
       <c r="B225" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C225" s="13"/>
       <c r="D225" s="39"/>
@@ -9383,13 +9386,13 @@
       <c r="I225" s="13"/>
       <c r="J225" s="11"/>
       <c r="K225" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="23"/>
       <c r="B226" s="20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C226" s="13"/>
       <c r="D226" s="39">
@@ -9412,7 +9415,7 @@
         <v>39783</v>
       </c>
       <c r="B227" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C227" s="13">
         <v>1.25</v>
@@ -9430,13 +9433,13 @@
       <c r="I227" s="13"/>
       <c r="J227" s="11"/>
       <c r="K227" s="20" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="23"/>
       <c r="B228" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C228" s="13"/>
       <c r="D228" s="39"/>
@@ -9450,13 +9453,13 @@
       <c r="I228" s="13"/>
       <c r="J228" s="11"/>
       <c r="K228" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="23"/>
       <c r="B229" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C229" s="13"/>
       <c r="D229" s="39"/>
@@ -9478,7 +9481,7 @@
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="23"/>
       <c r="B230" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C230" s="13"/>
       <c r="D230" s="39">
@@ -9497,7 +9500,7 @@
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="48" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B231" s="20"/>
       <c r="C231" s="13"/>
@@ -9523,7 +9526,7 @@
         <v>39814</v>
       </c>
       <c r="B232" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C232" s="13">
         <v>1.25</v>
@@ -9541,13 +9544,13 @@
       <c r="I232" s="13"/>
       <c r="J232" s="11"/>
       <c r="K232" s="20" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="23"/>
       <c r="B233" s="20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C233" s="13"/>
       <c r="D233" s="39">
@@ -9570,7 +9573,7 @@
         <v>39845</v>
       </c>
       <c r="B234" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C234" s="13">
         <v>1.25</v>
@@ -9588,13 +9591,13 @@
       <c r="I234" s="13"/>
       <c r="J234" s="11"/>
       <c r="K234" s="20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="23"/>
       <c r="B235" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C235" s="13"/>
       <c r="D235" s="39">
@@ -9617,7 +9620,7 @@
         <v>39873</v>
       </c>
       <c r="B236" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C236" s="13">
         <v>1.25</v>
@@ -9633,13 +9636,13 @@
       <c r="I236" s="13"/>
       <c r="J236" s="11"/>
       <c r="K236" s="20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="23"/>
       <c r="B237" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C237" s="13"/>
       <c r="D237" s="39"/>
@@ -9655,13 +9658,13 @@
       <c r="I237" s="13"/>
       <c r="J237" s="11"/>
       <c r="K237" s="20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="23"/>
       <c r="B238" s="20" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C238" s="13"/>
       <c r="D238" s="39">
@@ -9684,7 +9687,7 @@
         <v>39904</v>
       </c>
       <c r="B239" s="20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C239" s="13">
         <v>1.25</v>
@@ -9709,7 +9712,7 @@
         <v>39934</v>
       </c>
       <c r="B240" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C240" s="13">
         <v>1.25</v>
@@ -9733,7 +9736,7 @@
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="23"/>
       <c r="B241" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C241" s="13"/>
       <c r="D241" s="39"/>
@@ -9749,13 +9752,13 @@
       <c r="I241" s="13"/>
       <c r="J241" s="11"/>
       <c r="K241" s="20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="23"/>
       <c r="B242" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C242" s="13"/>
       <c r="D242" s="39">
@@ -9771,13 +9774,13 @@
       <c r="I242" s="13"/>
       <c r="J242" s="11"/>
       <c r="K242" s="20" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="23"/>
       <c r="B243" s="20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C243" s="13"/>
       <c r="D243" s="39">
@@ -9800,7 +9803,7 @@
         <v>39965</v>
       </c>
       <c r="B244" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C244" s="13">
         <v>1.25</v>
@@ -9818,13 +9821,13 @@
       <c r="I244" s="13"/>
       <c r="J244" s="11"/>
       <c r="K244" s="20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="23"/>
       <c r="B245" s="20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C245" s="13"/>
       <c r="D245" s="39">
@@ -9847,7 +9850,7 @@
         <v>39995</v>
       </c>
       <c r="B246" s="20" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C246" s="13">
         <v>1.25</v>
@@ -9872,7 +9875,7 @@
         <v>40026</v>
       </c>
       <c r="B247" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C247" s="13">
         <v>1.25</v>
@@ -9890,13 +9893,13 @@
       <c r="I247" s="13"/>
       <c r="J247" s="11"/>
       <c r="K247" s="20" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="23"/>
       <c r="B248" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C248" s="13"/>
       <c r="D248" s="39"/>
@@ -9918,7 +9921,7 @@
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="23"/>
       <c r="B249" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C249" s="13"/>
       <c r="D249" s="39">
@@ -9934,13 +9937,13 @@
       <c r="I249" s="13"/>
       <c r="J249" s="11"/>
       <c r="K249" s="20" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="23"/>
       <c r="B250" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C250" s="13"/>
       <c r="D250" s="39"/>
@@ -9956,13 +9959,13 @@
       <c r="I250" s="13"/>
       <c r="J250" s="11"/>
       <c r="K250" s="20" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="23"/>
       <c r="B251" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C251" s="13"/>
       <c r="D251" s="39">
@@ -9985,7 +9988,7 @@
         <v>40057</v>
       </c>
       <c r="B252" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C252" s="13">
         <v>1.25</v>
@@ -10009,7 +10012,7 @@
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="23"/>
       <c r="B253" s="20" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C253" s="13"/>
       <c r="D253" s="39">
@@ -10032,7 +10035,7 @@
         <v>40087</v>
       </c>
       <c r="B254" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C254" s="13">
         <v>1.25</v>
@@ -10048,13 +10051,13 @@
       <c r="I254" s="13"/>
       <c r="J254" s="11"/>
       <c r="K254" s="20" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="23"/>
       <c r="B255" s="20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C255" s="13"/>
       <c r="D255" s="39">
@@ -10077,7 +10080,7 @@
         <v>40118</v>
       </c>
       <c r="B256" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C256" s="13">
         <v>1.25</v>
@@ -10093,13 +10096,13 @@
       <c r="I256" s="13"/>
       <c r="J256" s="11"/>
       <c r="K256" s="20" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="23"/>
       <c r="B257" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C257" s="13"/>
       <c r="D257" s="39"/>
@@ -10115,13 +10118,13 @@
       <c r="I257" s="13"/>
       <c r="J257" s="11"/>
       <c r="K257" s="20" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="23"/>
       <c r="B258" s="20" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C258" s="13"/>
       <c r="D258" s="39">
@@ -10144,7 +10147,7 @@
         <v>40148</v>
       </c>
       <c r="B259" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C259" s="13">
         <v>1.25</v>
@@ -10165,7 +10168,7 @@
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="48" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B260" s="20"/>
       <c r="C260" s="13"/>
@@ -10191,7 +10194,7 @@
         <v>40179</v>
       </c>
       <c r="B261" s="20" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C261" s="13">
         <v>1.25</v>
@@ -10216,7 +10219,7 @@
         <v>40210</v>
       </c>
       <c r="B262" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C262" s="13">
         <v>1.25</v>
@@ -10234,13 +10237,13 @@
       <c r="I262" s="13"/>
       <c r="J262" s="11"/>
       <c r="K262" s="20" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="23"/>
       <c r="B263" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C263" s="13"/>
       <c r="D263" s="39"/>
@@ -10254,13 +10257,13 @@
       <c r="I263" s="13"/>
       <c r="J263" s="11"/>
       <c r="K263" s="20" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="23"/>
       <c r="B264" s="20" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C264" s="13"/>
       <c r="D264" s="39">
@@ -10283,7 +10286,7 @@
         <v>40238</v>
       </c>
       <c r="B265" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C265" s="13">
         <v>1.25</v>
@@ -10301,13 +10304,13 @@
       <c r="I265" s="13"/>
       <c r="J265" s="11"/>
       <c r="K265" s="20" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="23"/>
       <c r="B266" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C266" s="13"/>
       <c r="D266" s="39"/>
@@ -10321,13 +10324,13 @@
       <c r="I266" s="13"/>
       <c r="J266" s="11"/>
       <c r="K266" s="20" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="23"/>
       <c r="B267" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C267" s="13"/>
       <c r="D267" s="39"/>
@@ -10343,13 +10346,13 @@
       <c r="I267" s="13"/>
       <c r="J267" s="11"/>
       <c r="K267" s="20" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="23"/>
       <c r="B268" s="20" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C268" s="13"/>
       <c r="D268" s="39">
@@ -10372,7 +10375,7 @@
         <v>40269</v>
       </c>
       <c r="B269" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C269" s="13">
         <v>1.25</v>
@@ -10390,13 +10393,13 @@
       <c r="I269" s="13"/>
       <c r="J269" s="11"/>
       <c r="K269" s="20" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="23"/>
       <c r="B270" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C270" s="13"/>
       <c r="D270" s="39">
@@ -10412,13 +10415,13 @@
       <c r="I270" s="13"/>
       <c r="J270" s="11"/>
       <c r="K270" s="20" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="23"/>
       <c r="B271" s="20" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C271" s="13"/>
       <c r="D271" s="39">
@@ -10441,7 +10444,7 @@
         <v>40299</v>
       </c>
       <c r="B272" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C272" s="13">
         <v>1.25</v>
@@ -10459,13 +10462,13 @@
       <c r="I272" s="13"/>
       <c r="J272" s="11"/>
       <c r="K272" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="23"/>
       <c r="B273" s="20" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C273" s="13"/>
       <c r="D273" s="39">
@@ -10488,7 +10491,7 @@
         <v>40330</v>
       </c>
       <c r="B274" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C274" s="13">
         <v>1.25</v>
@@ -10512,7 +10515,7 @@
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="23"/>
       <c r="B275" s="20" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C275" s="13"/>
       <c r="D275" s="39">
@@ -10535,7 +10538,7 @@
         <v>40360</v>
       </c>
       <c r="B276" s="20" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C276" s="13">
         <v>1.25</v>
@@ -10560,7 +10563,7 @@
         <v>40391</v>
       </c>
       <c r="B277" s="20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C277" s="13">
         <v>1.25</v>
@@ -10585,7 +10588,7 @@
         <v>40422</v>
       </c>
       <c r="B278" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C278" s="13">
         <v>1.25</v>
@@ -10603,13 +10606,13 @@
       <c r="I278" s="13"/>
       <c r="J278" s="11"/>
       <c r="K278" s="20" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="23"/>
       <c r="B279" s="20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C279" s="13"/>
       <c r="D279" s="39">
@@ -10632,7 +10635,7 @@
         <v>40452</v>
       </c>
       <c r="B280" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C280" s="13">
         <v>1.25</v>
@@ -10650,13 +10653,13 @@
       <c r="I280" s="13"/>
       <c r="J280" s="11"/>
       <c r="K280" s="20" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="23"/>
       <c r="B281" s="20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C281" s="13"/>
       <c r="D281" s="39">
@@ -10679,7 +10682,7 @@
         <v>40483</v>
       </c>
       <c r="B282" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C282" s="13">
         <v>1.25</v>
@@ -10697,13 +10700,13 @@
       <c r="I282" s="13"/>
       <c r="J282" s="11"/>
       <c r="K282" s="20" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="23"/>
       <c r="B283" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C283" s="13"/>
       <c r="D283" s="39"/>
@@ -10717,13 +10720,13 @@
       <c r="I283" s="13"/>
       <c r="J283" s="11"/>
       <c r="K283" s="20" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="23"/>
       <c r="B284" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C284" s="13"/>
       <c r="D284" s="39"/>
@@ -10739,13 +10742,13 @@
       <c r="I284" s="13"/>
       <c r="J284" s="11"/>
       <c r="K284" s="20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="23"/>
       <c r="B285" s="20" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C285" s="13"/>
       <c r="D285" s="39">
@@ -10768,7 +10771,7 @@
         <v>40513</v>
       </c>
       <c r="B286" s="20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C286" s="13">
         <v>1.25</v>
@@ -10789,7 +10792,7 @@
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="48" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B287" s="20"/>
       <c r="C287" s="13"/>
@@ -10815,7 +10818,7 @@
         <v>40544</v>
       </c>
       <c r="B288" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C288" s="13">
         <v>1.25</v>
@@ -10833,13 +10836,13 @@
       <c r="I288" s="13"/>
       <c r="J288" s="11"/>
       <c r="K288" s="20" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="23"/>
       <c r="B289" s="20" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C289" s="13"/>
       <c r="D289" s="39">
@@ -10862,7 +10865,7 @@
         <v>40575</v>
       </c>
       <c r="B290" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C290" s="13">
         <v>1.25</v>
@@ -10880,13 +10883,13 @@
       <c r="I290" s="13"/>
       <c r="J290" s="11"/>
       <c r="K290" s="20" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="23"/>
       <c r="B291" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C291" s="13"/>
       <c r="D291" s="39"/>
@@ -10906,7 +10909,7 @@
     <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="23"/>
       <c r="B292" s="20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C292" s="13"/>
       <c r="D292" s="39">
@@ -10929,7 +10932,7 @@
         <v>40603</v>
       </c>
       <c r="B293" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C293" s="13">
         <v>1.25</v>
@@ -10947,13 +10950,13 @@
       <c r="I293" s="13"/>
       <c r="J293" s="11"/>
       <c r="K293" s="20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="23"/>
       <c r="B294" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C294" s="13"/>
       <c r="D294" s="39"/>
@@ -10969,13 +10972,13 @@
       <c r="I294" s="13"/>
       <c r="J294" s="11"/>
       <c r="K294" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="23"/>
       <c r="B295" s="20" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C295" s="13"/>
       <c r="D295" s="39">
@@ -10998,7 +11001,7 @@
         <v>40634</v>
       </c>
       <c r="B296" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C296" s="13">
         <v>1.25</v>
@@ -11022,7 +11025,7 @@
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="23"/>
       <c r="B297" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C297" s="13"/>
       <c r="D297" s="39"/>
@@ -11038,13 +11041,13 @@
       <c r="I297" s="13"/>
       <c r="J297" s="11"/>
       <c r="K297" s="20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="23"/>
       <c r="B298" s="20" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C298" s="13"/>
       <c r="D298" s="39">
@@ -11067,7 +11070,7 @@
         <v>40664</v>
       </c>
       <c r="B299" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C299" s="13">
         <v>1.25</v>
@@ -11085,13 +11088,13 @@
       <c r="I299" s="13"/>
       <c r="J299" s="11"/>
       <c r="K299" s="20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="23"/>
       <c r="B300" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C300" s="13"/>
       <c r="D300" s="39"/>
@@ -11107,13 +11110,13 @@
       <c r="I300" s="13"/>
       <c r="J300" s="11"/>
       <c r="K300" s="20" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="23"/>
       <c r="B301" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C301" s="13"/>
       <c r="D301" s="39"/>
@@ -11127,13 +11130,13 @@
       <c r="I301" s="13"/>
       <c r="J301" s="11"/>
       <c r="K301" s="20" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="23"/>
       <c r="B302" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C302" s="13"/>
       <c r="D302" s="39"/>
@@ -11149,13 +11152,13 @@
       <c r="I302" s="13"/>
       <c r="J302" s="11"/>
       <c r="K302" s="20" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="23"/>
       <c r="B303" s="20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C303" s="13"/>
       <c r="D303" s="39">
@@ -11178,7 +11181,7 @@
         <v>40695</v>
       </c>
       <c r="B304" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C304" s="13">
         <v>1.25</v>
@@ -11200,7 +11203,7 @@
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="23"/>
       <c r="B305" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C305" s="13"/>
       <c r="D305" s="39"/>
@@ -11222,7 +11225,7 @@
     <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="23"/>
       <c r="B306" s="20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C306" s="13"/>
       <c r="D306" s="39">
@@ -11245,7 +11248,7 @@
         <v>40725</v>
       </c>
       <c r="B307" s="20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C307" s="13">
         <v>1.25</v>
@@ -11270,7 +11273,7 @@
         <v>40756</v>
       </c>
       <c r="B308" s="20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C308" s="13">
         <v>1.25</v>
@@ -11295,7 +11298,7 @@
         <v>40787</v>
       </c>
       <c r="B309" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C309" s="13">
         <v>1.25</v>
@@ -11319,7 +11322,7 @@
     <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="23"/>
       <c r="B310" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C310" s="13"/>
       <c r="D310" s="39">
@@ -11335,13 +11338,13 @@
       <c r="I310" s="13"/>
       <c r="J310" s="11"/>
       <c r="K310" s="20" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="23"/>
       <c r="B311" s="20" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C311" s="13"/>
       <c r="D311" s="39">
@@ -11364,7 +11367,7 @@
         <v>40817</v>
       </c>
       <c r="B312" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C312" s="13">
         <v>1.25</v>
@@ -11382,13 +11385,13 @@
       <c r="I312" s="13"/>
       <c r="J312" s="11"/>
       <c r="K312" s="20" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="23"/>
       <c r="B313" s="20" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C313" s="13"/>
       <c r="D313" s="39">
@@ -11411,7 +11414,7 @@
         <v>40848</v>
       </c>
       <c r="B314" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C314" s="13">
         <v>1.25</v>
@@ -11429,13 +11432,13 @@
       <c r="I314" s="13"/>
       <c r="J314" s="11"/>
       <c r="K314" s="20" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="23"/>
       <c r="B315" s="20" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C315" s="13"/>
       <c r="D315" s="39">
@@ -11458,7 +11461,7 @@
         <v>40878</v>
       </c>
       <c r="B316" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C316" s="13">
         <v>1.25</v>
@@ -11476,13 +11479,13 @@
       <c r="I316" s="13"/>
       <c r="J316" s="11"/>
       <c r="K316" s="20" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="23"/>
       <c r="B317" s="20" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C317" s="13"/>
       <c r="D317" s="39"/>
@@ -11496,13 +11499,13 @@
       <c r="I317" s="13"/>
       <c r="J317" s="11"/>
       <c r="K317" s="20" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="23"/>
       <c r="B318" s="20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C318" s="13"/>
       <c r="D318" s="39">
@@ -11521,7 +11524,7 @@
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="48" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B319" s="20"/>
       <c r="C319" s="13"/>
@@ -11547,7 +11550,7 @@
         <v>40909</v>
       </c>
       <c r="B320" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C320" s="13">
         <v>1.25</v>
@@ -11565,13 +11568,13 @@
       <c r="I320" s="13"/>
       <c r="J320" s="11"/>
       <c r="K320" s="20" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="23"/>
       <c r="B321" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C321" s="13"/>
       <c r="D321" s="39"/>
@@ -11587,13 +11590,13 @@
       <c r="I321" s="13"/>
       <c r="J321" s="11"/>
       <c r="K321" s="20" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="23"/>
       <c r="B322" s="20" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C322" s="13"/>
       <c r="D322" s="39">
@@ -11616,7 +11619,7 @@
         <v>40940</v>
       </c>
       <c r="B323" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C323" s="13">
         <v>1.25</v>
@@ -11634,13 +11637,13 @@
       <c r="I323" s="13"/>
       <c r="J323" s="11"/>
       <c r="K323" s="20" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="23"/>
       <c r="B324" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C324" s="13"/>
       <c r="D324" s="39">
@@ -11663,7 +11666,7 @@
         <v>40969</v>
       </c>
       <c r="B325" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C325" s="13">
         <v>1.25</v>
@@ -11681,13 +11684,13 @@
       <c r="I325" s="13"/>
       <c r="J325" s="11"/>
       <c r="K325" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="23"/>
       <c r="B326" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C326" s="13"/>
       <c r="D326" s="39"/>
@@ -11703,13 +11706,13 @@
       <c r="I326" s="13"/>
       <c r="J326" s="11"/>
       <c r="K326" s="20" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="23"/>
       <c r="B327" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C327" s="13"/>
       <c r="D327" s="39"/>
@@ -11725,13 +11728,13 @@
       <c r="I327" s="13"/>
       <c r="J327" s="11"/>
       <c r="K327" s="20" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="23"/>
       <c r="B328" s="20" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C328" s="13"/>
       <c r="D328" s="39">
@@ -11754,7 +11757,7 @@
         <v>41000</v>
       </c>
       <c r="B329" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C329" s="13">
         <v>1.25</v>
@@ -11772,13 +11775,13 @@
       <c r="I329" s="13"/>
       <c r="J329" s="11"/>
       <c r="K329" s="20" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="23"/>
       <c r="B330" s="20" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C330" s="13"/>
       <c r="D330" s="39">
@@ -11801,7 +11804,7 @@
         <v>41030</v>
       </c>
       <c r="B331" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C331" s="13">
         <v>1.25</v>
@@ -11819,13 +11822,13 @@
       <c r="I331" s="13"/>
       <c r="J331" s="11"/>
       <c r="K331" s="20" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="23"/>
       <c r="B332" s="20" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C332" s="13"/>
       <c r="D332" s="39">
@@ -11848,14 +11851,14 @@
         <v>41061</v>
       </c>
       <c r="B333" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C333" s="13">
         <v>1.25</v>
       </c>
       <c r="D333" s="39"/>
       <c r="E333" s="13" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F333" s="20"/>
       <c r="G333" s="13">
@@ -11874,7 +11877,7 @@
     <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="23"/>
       <c r="B334" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C334" s="13"/>
       <c r="D334" s="39"/>
@@ -11890,13 +11893,13 @@
       <c r="I334" s="13"/>
       <c r="J334" s="11"/>
       <c r="K334" s="20" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="23"/>
       <c r="B335" s="20" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C335" s="13"/>
       <c r="D335" s="39">
@@ -11919,7 +11922,7 @@
         <v>41091</v>
       </c>
       <c r="B336" s="20" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C336" s="13">
         <v>1.25</v>
@@ -11944,7 +11947,7 @@
         <v>41122</v>
       </c>
       <c r="B337" s="20" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C337" s="13">
         <v>1.25</v>
@@ -11969,7 +11972,7 @@
         <v>41153</v>
       </c>
       <c r="B338" s="20" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C338" s="13">
         <v>1.25</v>
@@ -11994,7 +11997,7 @@
         <v>41183</v>
       </c>
       <c r="B339" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C339" s="13">
         <v>1.25</v>
@@ -12012,13 +12015,13 @@
       <c r="I339" s="13"/>
       <c r="J339" s="11"/>
       <c r="K339" s="20" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="23"/>
       <c r="B340" s="20" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C340" s="13"/>
       <c r="D340" s="39">
@@ -12041,7 +12044,7 @@
         <v>41214</v>
       </c>
       <c r="B341" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C341" s="13">
         <v>1.25</v>
@@ -12059,13 +12062,13 @@
       <c r="I341" s="13"/>
       <c r="J341" s="11"/>
       <c r="K341" s="20" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="23"/>
       <c r="B342" s="20" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C342" s="13"/>
       <c r="D342" s="39"/>
@@ -12079,13 +12082,13 @@
       <c r="I342" s="13"/>
       <c r="J342" s="11"/>
       <c r="K342" s="20" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="23"/>
       <c r="B343" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C343" s="13"/>
       <c r="D343" s="39">
@@ -12101,13 +12104,13 @@
       <c r="I343" s="13"/>
       <c r="J343" s="11"/>
       <c r="K343" s="20" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="23"/>
       <c r="B344" s="20" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C344" s="13"/>
       <c r="D344" s="39">
@@ -12130,7 +12133,7 @@
         <v>41244</v>
       </c>
       <c r="B345" s="20" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C345" s="13">
         <v>1.25</v>
@@ -12151,7 +12154,7 @@
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="48" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B346" s="20"/>
       <c r="C346" s="13"/>
@@ -12177,7 +12180,7 @@
         <v>41275</v>
       </c>
       <c r="B347" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C347" s="13">
         <v>1.25</v>
@@ -12201,7 +12204,7 @@
     <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="23"/>
       <c r="B348" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C348" s="13"/>
       <c r="D348" s="39"/>
@@ -12217,13 +12220,13 @@
       <c r="I348" s="13"/>
       <c r="J348" s="11"/>
       <c r="K348" s="20" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="23"/>
       <c r="B349" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C349" s="13"/>
       <c r="D349" s="39">
@@ -12246,7 +12249,7 @@
         <v>41306</v>
       </c>
       <c r="B350" s="20" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C350" s="13">
         <v>1.25</v>
@@ -12271,7 +12274,7 @@
         <v>41334</v>
       </c>
       <c r="B351" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C351" s="13">
         <v>1.25</v>
@@ -12289,13 +12292,13 @@
       <c r="I351" s="13"/>
       <c r="J351" s="11"/>
       <c r="K351" s="20" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="23"/>
       <c r="B352" s="20" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C352" s="13"/>
       <c r="D352" s="39">
@@ -12318,7 +12321,7 @@
         <v>41365</v>
       </c>
       <c r="B353" s="20" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C353" s="13">
         <v>1.25</v>
@@ -12343,7 +12346,7 @@
         <v>41395</v>
       </c>
       <c r="B354" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C354" s="13">
         <v>1.25</v>
@@ -12361,13 +12364,13 @@
       <c r="I354" s="13"/>
       <c r="J354" s="11"/>
       <c r="K354" s="20" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="23"/>
       <c r="B355" s="20" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C355" s="13"/>
       <c r="D355" s="39">
@@ -12390,7 +12393,7 @@
         <v>41426</v>
       </c>
       <c r="B356" s="20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C356" s="13">
         <v>1.25</v>
@@ -12415,7 +12418,7 @@
         <v>41456</v>
       </c>
       <c r="B357" s="20" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C357" s="13">
         <v>1.25</v>
@@ -12431,13 +12434,13 @@
       <c r="I357" s="13"/>
       <c r="J357" s="11"/>
       <c r="K357" s="20" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="23"/>
       <c r="B358" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C358" s="13"/>
       <c r="D358" s="39"/>
@@ -12459,7 +12462,7 @@
     <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="23"/>
       <c r="B359" s="20" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C359" s="13"/>
       <c r="D359" s="39">
@@ -12482,7 +12485,7 @@
         <v>41487</v>
       </c>
       <c r="B360" s="20" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C360" s="13">
         <v>1.25</v>
@@ -12507,7 +12510,7 @@
         <v>41518</v>
       </c>
       <c r="B361" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C361" s="13">
         <v>1.25</v>
@@ -12532,7 +12535,7 @@
         <v>41548</v>
       </c>
       <c r="B362" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C362" s="13">
         <v>1.25</v>
@@ -12548,13 +12551,13 @@
       <c r="I362" s="13"/>
       <c r="J362" s="11"/>
       <c r="K362" s="20" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="23"/>
       <c r="B363" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C363" s="13"/>
       <c r="D363" s="39">
@@ -12570,13 +12573,13 @@
       <c r="I363" s="13"/>
       <c r="J363" s="11"/>
       <c r="K363" s="20" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="23"/>
       <c r="B364" s="20" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C364" s="13"/>
       <c r="D364" s="39">
@@ -12599,7 +12602,7 @@
         <v>41579</v>
       </c>
       <c r="B365" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C365" s="13">
         <v>1.25</v>
@@ -12617,13 +12620,13 @@
       <c r="I365" s="13"/>
       <c r="J365" s="11"/>
       <c r="K365" s="20" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="23"/>
       <c r="B366" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C366" s="13"/>
       <c r="D366" s="39">
@@ -12639,13 +12642,13 @@
       <c r="I366" s="13"/>
       <c r="J366" s="11"/>
       <c r="K366" s="20" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="23"/>
       <c r="B367" s="20" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C367" s="13"/>
       <c r="D367" s="39">
@@ -12668,7 +12671,7 @@
         <v>41609</v>
       </c>
       <c r="B368" s="20" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C368" s="13">
         <v>1.25</v>
@@ -12689,7 +12692,7 @@
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="48" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B369" s="20"/>
       <c r="C369" s="13"/>
@@ -12715,7 +12718,7 @@
         <v>41640</v>
       </c>
       <c r="B370" s="20" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C370" s="13">
         <v>1.25</v>
@@ -12740,7 +12743,7 @@
         <v>41671</v>
       </c>
       <c r="B371" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C371" s="13">
         <v>1.25</v>
@@ -12764,7 +12767,7 @@
     <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="23"/>
       <c r="B372" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C372" s="13"/>
       <c r="D372" s="39"/>
@@ -12780,13 +12783,13 @@
       <c r="I372" s="13"/>
       <c r="J372" s="11"/>
       <c r="K372" s="20" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="23"/>
       <c r="B373" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C373" s="13"/>
       <c r="D373" s="39"/>
@@ -12802,13 +12805,13 @@
       <c r="I373" s="13"/>
       <c r="J373" s="11"/>
       <c r="K373" s="20" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="23"/>
       <c r="B374" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C374" s="13"/>
       <c r="D374" s="39"/>
@@ -12822,13 +12825,13 @@
       <c r="I374" s="13"/>
       <c r="J374" s="11"/>
       <c r="K374" s="20" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="23"/>
       <c r="B375" s="20" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C375" s="13"/>
       <c r="D375" s="39">
@@ -12851,7 +12854,7 @@
         <v>41699</v>
       </c>
       <c r="B376" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C376" s="13">
         <v>1.25</v>
@@ -12867,13 +12870,13 @@
       <c r="I376" s="13"/>
       <c r="J376" s="11"/>
       <c r="K376" s="20" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="23"/>
       <c r="B377" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C377" s="13"/>
       <c r="D377" s="39"/>
@@ -12889,13 +12892,13 @@
       <c r="I377" s="13"/>
       <c r="J377" s="11"/>
       <c r="K377" s="20" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="23"/>
       <c r="B378" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C378" s="13"/>
       <c r="D378" s="39">
@@ -12918,7 +12921,7 @@
         <v>41730</v>
       </c>
       <c r="B379" s="20" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C379" s="13">
         <v>1.25</v>
@@ -12943,7 +12946,7 @@
         <v>41760</v>
       </c>
       <c r="B380" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C380" s="13">
         <v>1.25</v>
@@ -12959,13 +12962,13 @@
       <c r="I380" s="13"/>
       <c r="J380" s="11"/>
       <c r="K380" s="20" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="23"/>
       <c r="B381" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C381" s="13"/>
       <c r="D381" s="39">
@@ -12981,13 +12984,13 @@
       <c r="I381" s="13"/>
       <c r="J381" s="11"/>
       <c r="K381" s="20" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="23"/>
       <c r="B382" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C382" s="13"/>
       <c r="D382" s="39"/>
@@ -13003,13 +13006,13 @@
       <c r="I382" s="13"/>
       <c r="J382" s="11"/>
       <c r="K382" s="20" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="23"/>
       <c r="B383" s="20" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C383" s="13"/>
       <c r="D383" s="39">
@@ -13032,7 +13035,7 @@
         <v>41791</v>
       </c>
       <c r="B384" s="20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C384" s="13">
         <v>1.25</v>
@@ -13057,7 +13060,7 @@
         <v>41821</v>
       </c>
       <c r="B385" s="20" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C385" s="13">
         <v>1.25</v>
@@ -13082,7 +13085,7 @@
         <v>41852</v>
       </c>
       <c r="B386" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C386" s="13">
         <v>1.25</v>
@@ -13107,7 +13110,7 @@
         <v>41883</v>
       </c>
       <c r="B387" s="20" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C387" s="13">
         <v>1.25</v>
@@ -13132,7 +13135,7 @@
         <v>41913</v>
       </c>
       <c r="B388" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C388" s="13">
         <v>1.25</v>
@@ -13156,7 +13159,7 @@
     <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="23"/>
       <c r="B389" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C389" s="13"/>
       <c r="D389" s="39">
@@ -13172,13 +13175,13 @@
       <c r="I389" s="13"/>
       <c r="J389" s="11"/>
       <c r="K389" s="20" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="23"/>
       <c r="B390" s="20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C390" s="13"/>
       <c r="D390" s="39">
@@ -13201,7 +13204,7 @@
         <v>41944</v>
       </c>
       <c r="B391" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C391" s="13">
         <v>1.25</v>
@@ -13219,13 +13222,13 @@
       <c r="I391" s="13"/>
       <c r="J391" s="11"/>
       <c r="K391" s="20" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="23"/>
       <c r="B392" s="20" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C392" s="13"/>
       <c r="D392" s="39">
@@ -13248,7 +13251,7 @@
         <v>41974</v>
       </c>
       <c r="B393" s="20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C393" s="13">
         <v>1.25</v>
@@ -13269,7 +13272,7 @@
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="48" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B394" s="20"/>
       <c r="C394" s="13"/>
@@ -13295,7 +13298,7 @@
         <v>42005</v>
       </c>
       <c r="B395" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C395" s="13">
         <v>1.25</v>
@@ -13313,13 +13316,13 @@
       <c r="I395" s="13"/>
       <c r="J395" s="11"/>
       <c r="K395" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="23"/>
       <c r="B396" s="20" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C396" s="13"/>
       <c r="D396" s="39">
@@ -13342,7 +13345,7 @@
         <v>42036</v>
       </c>
       <c r="B397" s="20" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C397" s="13">
         <v>1.25</v>
@@ -13367,7 +13370,7 @@
         <v>42064</v>
       </c>
       <c r="B398" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C398" s="13">
         <v>1.25</v>
@@ -13385,13 +13388,13 @@
       <c r="I398" s="13"/>
       <c r="J398" s="11"/>
       <c r="K398" s="20" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="23"/>
       <c r="B399" s="20" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C399" s="13"/>
       <c r="D399" s="39"/>
@@ -13405,13 +13408,13 @@
       <c r="I399" s="13"/>
       <c r="J399" s="11"/>
       <c r="K399" s="20" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="23"/>
       <c r="B400" s="20" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C400" s="13"/>
       <c r="D400" s="39">
@@ -13434,7 +13437,7 @@
         <v>42095</v>
       </c>
       <c r="B401" s="20" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C401" s="13">
         <v>1.25</v>
@@ -13459,7 +13462,7 @@
         <v>42125</v>
       </c>
       <c r="B402" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C402" s="13">
         <v>1.25</v>
@@ -13475,13 +13478,13 @@
       <c r="I402" s="13"/>
       <c r="J402" s="11"/>
       <c r="K402" s="20" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="23"/>
       <c r="B403" s="20" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C403" s="13"/>
       <c r="D403" s="39">
@@ -13504,7 +13507,7 @@
         <v>42156</v>
       </c>
       <c r="B404" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C404" s="13">
         <v>1.25</v>
@@ -13528,7 +13531,7 @@
     <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="23"/>
       <c r="B405" s="20" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C405" s="13"/>
       <c r="D405" s="39">
@@ -13551,7 +13554,7 @@
         <v>42186</v>
       </c>
       <c r="B406" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C406" s="13">
         <v>1.25</v>
@@ -13569,13 +13572,13 @@
       <c r="I406" s="13"/>
       <c r="J406" s="11"/>
       <c r="K406" s="20" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="23"/>
       <c r="B407" s="20" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C407" s="13"/>
       <c r="D407" s="39">
@@ -13598,7 +13601,7 @@
         <v>42217</v>
       </c>
       <c r="B408" s="20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C408" s="13">
         <v>1.25</v>
@@ -13623,7 +13626,7 @@
         <v>42248</v>
       </c>
       <c r="B409" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C409" s="13">
         <v>1.25</v>
@@ -13641,13 +13644,13 @@
       <c r="I409" s="13"/>
       <c r="J409" s="11"/>
       <c r="K409" s="20" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="23"/>
       <c r="B410" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C410" s="13"/>
       <c r="D410" s="39">
@@ -13663,13 +13666,13 @@
       <c r="I410" s="13"/>
       <c r="J410" s="11"/>
       <c r="K410" s="20" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="23"/>
       <c r="B411" s="20" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C411" s="13"/>
       <c r="D411" s="39">
@@ -13692,7 +13695,7 @@
         <v>42278</v>
       </c>
       <c r="B412" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C412" s="13">
         <v>1.25</v>
@@ -13710,13 +13713,13 @@
       <c r="I412" s="13"/>
       <c r="J412" s="11"/>
       <c r="K412" s="20" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="23"/>
       <c r="B413" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C413" s="13"/>
       <c r="D413" s="39">
@@ -13732,13 +13735,13 @@
       <c r="I413" s="13"/>
       <c r="J413" s="11"/>
       <c r="K413" s="20" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="23"/>
       <c r="B414" s="20" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C414" s="13"/>
       <c r="D414" s="39">
@@ -13761,7 +13764,7 @@
         <v>42309</v>
       </c>
       <c r="B415" s="20" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C415" s="13">
         <v>1.25</v>
@@ -13786,7 +13789,7 @@
         <v>42339</v>
       </c>
       <c r="B416" s="20" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C416" s="13">
         <v>1.25</v>
@@ -13807,7 +13810,7 @@
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="48" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B417" s="20"/>
       <c r="C417" s="13"/>
@@ -13833,7 +13836,7 @@
         <v>42370</v>
       </c>
       <c r="B418" s="20" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C418" s="13">
         <v>1.25</v>
@@ -13858,7 +13861,7 @@
         <v>42401</v>
       </c>
       <c r="B419" s="20" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C419" s="13">
         <v>1.25</v>
@@ -13883,7 +13886,7 @@
         <v>42430</v>
       </c>
       <c r="B420" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C420" s="13">
         <v>1.25</v>
@@ -13901,13 +13904,13 @@
       <c r="I420" s="13"/>
       <c r="J420" s="11"/>
       <c r="K420" s="20" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="23"/>
       <c r="B421" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C421" s="13"/>
       <c r="D421" s="39"/>
@@ -13921,13 +13924,13 @@
       <c r="I421" s="13"/>
       <c r="J421" s="11"/>
       <c r="K421" s="20" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="23"/>
       <c r="B422" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C422" s="13"/>
       <c r="D422" s="39">
@@ -13950,7 +13953,7 @@
         <v>42461</v>
       </c>
       <c r="B423" s="20" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C423" s="13">
         <v>1.25</v>
@@ -13975,7 +13978,7 @@
         <v>42491</v>
       </c>
       <c r="B424" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C424" s="13">
         <v>1.25</v>
@@ -13991,13 +13994,13 @@
       <c r="I424" s="13"/>
       <c r="J424" s="11"/>
       <c r="K424" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="23"/>
       <c r="B425" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C425" s="13"/>
       <c r="D425" s="39"/>
@@ -14019,7 +14022,7 @@
     <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="23"/>
       <c r="B426" s="20" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C426" s="13"/>
       <c r="D426" s="39">
@@ -14042,7 +14045,7 @@
         <v>42522</v>
       </c>
       <c r="B427" s="20" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C427" s="13">
         <v>1.25</v>
@@ -14067,7 +14070,7 @@
         <v>42552</v>
       </c>
       <c r="B428" s="20" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C428" s="13">
         <v>1.25</v>
@@ -14092,7 +14095,7 @@
         <v>42583</v>
       </c>
       <c r="B429" s="20" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C429" s="13">
         <v>1.25</v>
@@ -14117,7 +14120,7 @@
         <v>42614</v>
       </c>
       <c r="B430" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C430" s="13">
         <v>1.25</v>
@@ -14135,13 +14138,13 @@
       <c r="I430" s="13"/>
       <c r="J430" s="11"/>
       <c r="K430" s="55" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="23"/>
       <c r="B431" s="20" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C431" s="13"/>
       <c r="D431" s="39">
@@ -14164,7 +14167,7 @@
         <v>42644</v>
       </c>
       <c r="B432" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C432" s="13">
         <v>1.25</v>
@@ -14182,13 +14185,13 @@
       <c r="I432" s="13"/>
       <c r="J432" s="11"/>
       <c r="K432" s="20" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="23"/>
       <c r="B433" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C433" s="13"/>
       <c r="D433" s="39"/>
@@ -14204,13 +14207,13 @@
       <c r="I433" s="13"/>
       <c r="J433" s="11"/>
       <c r="K433" s="20" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="23"/>
       <c r="B434" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C434" s="13"/>
       <c r="D434" s="39">
@@ -14226,13 +14229,13 @@
       <c r="I434" s="13"/>
       <c r="J434" s="11"/>
       <c r="K434" s="20" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="23"/>
       <c r="B435" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C435" s="13"/>
       <c r="D435" s="39"/>
@@ -14246,13 +14249,13 @@
       <c r="I435" s="13"/>
       <c r="J435" s="11"/>
       <c r="K435" s="20" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="23"/>
       <c r="B436" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C436" s="13"/>
       <c r="D436" s="39">
@@ -14268,13 +14271,13 @@
       <c r="I436" s="13"/>
       <c r="J436" s="11"/>
       <c r="K436" s="20" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="23"/>
       <c r="B437" s="20" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C437" s="13"/>
       <c r="D437" s="39">
@@ -14297,7 +14300,7 @@
         <v>42675</v>
       </c>
       <c r="B438" s="20" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C438" s="13">
         <v>1.25</v>
@@ -14322,7 +14325,7 @@
         <v>42705</v>
       </c>
       <c r="B439" s="20" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C439" s="13">
         <v>1.25</v>
@@ -14343,7 +14346,7 @@
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B440" s="20"/>
       <c r="C440" s="13"/>
@@ -14368,7 +14371,7 @@
         <v>42736</v>
       </c>
       <c r="B441" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C441" s="13">
         <v>1.25</v>
@@ -14392,7 +14395,7 @@
     <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40"/>
       <c r="B442" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C442" s="13"/>
       <c r="D442" s="39">
@@ -14414,7 +14417,7 @@
         <v>42767</v>
       </c>
       <c r="B443" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C443" s="13">
         <v>1.25</v>
@@ -14438,7 +14441,7 @@
         <v>42795</v>
       </c>
       <c r="B444" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C444" s="13">
         <v>1.25</v>
@@ -14454,13 +14457,13 @@
       <c r="I444" s="9"/>
       <c r="J444" s="11"/>
       <c r="K444" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40"/>
       <c r="B445" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C445" s="13"/>
       <c r="D445" s="39">
@@ -14482,7 +14485,7 @@
     <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40"/>
       <c r="B446" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C446" s="13"/>
       <c r="D446" s="39"/>
@@ -14504,7 +14507,7 @@
     <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40"/>
       <c r="B447" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C447" s="13"/>
       <c r="D447" s="39"/>
@@ -14526,7 +14529,7 @@
     <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C448" s="13"/>
       <c r="D448" s="39">
@@ -14548,7 +14551,7 @@
         <v>42826</v>
       </c>
       <c r="B449" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C449" s="13">
         <v>1.25</v>
@@ -14572,7 +14575,7 @@
     <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40"/>
       <c r="B450" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C450" s="13"/>
       <c r="D450" s="39">
@@ -14594,7 +14597,7 @@
         <v>42856</v>
       </c>
       <c r="B451" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C451" s="13">
         <v>1.25</v>
@@ -14618,7 +14621,7 @@
     <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40"/>
       <c r="B452" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C452" s="13"/>
       <c r="D452" s="43"/>
@@ -14632,13 +14635,13 @@
       <c r="I452" s="9"/>
       <c r="J452" s="12"/>
       <c r="K452" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40"/>
       <c r="B453" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C453" s="13"/>
       <c r="D453" s="43"/>
@@ -14660,7 +14663,7 @@
     <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40"/>
       <c r="B454" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C454" s="13"/>
       <c r="D454" s="43">
@@ -14702,7 +14705,7 @@
         <v>42917</v>
       </c>
       <c r="B456" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C456" s="13">
         <v>1.25</v>
@@ -14726,7 +14729,7 @@
         <v>42948</v>
       </c>
       <c r="B457" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C457" s="13">
         <v>1.25</v>
@@ -14750,7 +14753,7 @@
     <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40"/>
       <c r="B458" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C458" s="13"/>
       <c r="D458" s="39">
@@ -14772,7 +14775,7 @@
         <v>42979</v>
       </c>
       <c r="B459" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C459" s="13">
         <v>1.25</v>
@@ -14796,7 +14799,7 @@
         <v>43009</v>
       </c>
       <c r="B460" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C460" s="13">
         <v>1.25</v>
@@ -14814,13 +14817,13 @@
       <c r="I460" s="9"/>
       <c r="J460" s="11"/>
       <c r="K460" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C461" s="13"/>
       <c r="D461" s="39"/>
@@ -14842,7 +14845,7 @@
     <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C462" s="13"/>
       <c r="D462" s="39">
@@ -14864,7 +14867,7 @@
     <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40"/>
       <c r="B463" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C463" s="13"/>
       <c r="D463" s="39">
@@ -14886,7 +14889,7 @@
         <v>43040</v>
       </c>
       <c r="B464" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C464" s="13">
         <v>1.25</v>
@@ -14902,7 +14905,7 @@
       <c r="I464" s="9"/>
       <c r="J464" s="11"/>
       <c r="K464" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="465" spans="1:11" x14ac:dyDescent="0.25">
@@ -14927,7 +14930,7 @@
     </row>
     <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B466" s="20"/>
       <c r="C466" s="13"/>
@@ -15008,7 +15011,7 @@
         <v>43191</v>
       </c>
       <c r="B470" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C470" s="13">
         <v>1.25</v>
@@ -15024,13 +15027,13 @@
       <c r="I470" s="9"/>
       <c r="J470" s="11"/>
       <c r="K470" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40"/>
       <c r="B471" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C471" s="13"/>
       <c r="D471" s="39"/>
@@ -15054,7 +15057,7 @@
         <v>43221</v>
       </c>
       <c r="B472" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C472" s="13">
         <v>1.25</v>
@@ -15078,7 +15081,7 @@
         <v>43252</v>
       </c>
       <c r="B473" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C473" s="13">
         <v>1.25</v>
@@ -15122,7 +15125,7 @@
         <v>43313</v>
       </c>
       <c r="B475" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C475" s="13">
         <v>1.25</v>
@@ -15166,7 +15169,7 @@
         <v>43374</v>
       </c>
       <c r="B477" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C477" s="13">
         <v>1.25</v>
@@ -15190,7 +15193,7 @@
     <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40"/>
       <c r="B478" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C478" s="13"/>
       <c r="D478" s="39">
@@ -15206,13 +15209,13 @@
       <c r="I478" s="9"/>
       <c r="J478" s="11"/>
       <c r="K478" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40"/>
       <c r="B479" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C479" s="13"/>
       <c r="D479" s="39"/>
@@ -15226,13 +15229,13 @@
       <c r="I479" s="9"/>
       <c r="J479" s="11"/>
       <c r="K479" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40"/>
       <c r="B480" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C480" s="13"/>
       <c r="D480" s="39">
@@ -15254,7 +15257,7 @@
         <v>43405</v>
       </c>
       <c r="B481" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C481" s="13">
         <v>1.25</v>
@@ -15272,13 +15275,13 @@
       <c r="I481" s="9"/>
       <c r="J481" s="11"/>
       <c r="K481" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40"/>
       <c r="B482" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C482" s="13"/>
       <c r="D482" s="39">
@@ -15300,7 +15303,7 @@
         <v>43435</v>
       </c>
       <c r="B483" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C483" s="13">
         <v>1.25</v>
@@ -15316,13 +15319,13 @@
       <c r="I483" s="9"/>
       <c r="J483" s="11"/>
       <c r="K483" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40"/>
       <c r="B484" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C484" s="13"/>
       <c r="D484" s="39"/>
@@ -15344,7 +15347,7 @@
     <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40"/>
       <c r="B485" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C485" s="13"/>
       <c r="D485" s="39">
@@ -15363,7 +15366,7 @@
     </row>
     <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="48" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B486" s="20"/>
       <c r="C486" s="13"/>
@@ -15444,7 +15447,7 @@
         <v>43556</v>
       </c>
       <c r="B490" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C490" s="13">
         <v>1.25</v>
@@ -15460,7 +15463,7 @@
       <c r="I490" s="9"/>
       <c r="J490" s="11"/>
       <c r="K490" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="491" spans="1:11" x14ac:dyDescent="0.25">
@@ -15468,7 +15471,7 @@
         <v>43586</v>
       </c>
       <c r="B491" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C491" s="13">
         <v>1.25</v>
@@ -15492,7 +15495,7 @@
     <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40"/>
       <c r="B492" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C492" s="13"/>
       <c r="D492" s="39"/>
@@ -15506,13 +15509,13 @@
       <c r="I492" s="9"/>
       <c r="J492" s="11"/>
       <c r="K492" s="49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40"/>
       <c r="B493" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C493" s="13"/>
       <c r="D493" s="39">
@@ -15528,20 +15531,20 @@
       <c r="I493" s="9"/>
       <c r="J493" s="11"/>
       <c r="K493" s="49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40"/>
       <c r="B494" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C494" s="13"/>
       <c r="D494" s="39"/>
       <c r="E494" s="9"/>
       <c r="F494" s="20"/>
       <c r="G494" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H494" s="39">
         <v>1</v>
@@ -15577,7 +15580,7 @@
         <v>43647</v>
       </c>
       <c r="B496" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C496" s="13">
         <v>1.25</v>
@@ -15603,7 +15606,7 @@
         <v>43678</v>
       </c>
       <c r="B497" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C497" s="13">
         <v>1.25</v>
@@ -15621,13 +15624,13 @@
       <c r="I497" s="9"/>
       <c r="J497" s="11"/>
       <c r="K497" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40"/>
       <c r="B498" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C498" s="13"/>
       <c r="D498" s="39"/>
@@ -15649,7 +15652,7 @@
     <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40"/>
       <c r="B499" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C499" s="13"/>
       <c r="D499" s="39">
@@ -15693,7 +15696,7 @@
         <v>43739</v>
       </c>
       <c r="B501" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C501" s="13">
         <v>1.25</v>
@@ -15711,7 +15714,7 @@
       <c r="I501" s="9"/>
       <c r="J501" s="11"/>
       <c r="K501" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="502" spans="1:11" x14ac:dyDescent="0.25">
@@ -15719,7 +15722,7 @@
         <v>43770</v>
       </c>
       <c r="B502" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C502" s="13">
         <v>1.25</v>
@@ -15743,7 +15746,7 @@
     <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40"/>
       <c r="B503" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C503" s="13"/>
       <c r="D503" s="39"/>
@@ -15784,7 +15787,7 @@
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B505" s="20"/>
       <c r="C505" s="13"/>
@@ -15805,7 +15808,7 @@
         <v>43831</v>
       </c>
       <c r="B506" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C506" s="13">
         <v>1.25</v>
@@ -15829,7 +15832,7 @@
     <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40"/>
       <c r="B507" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C507" s="13"/>
       <c r="D507" s="39"/>
@@ -15843,13 +15846,13 @@
       <c r="I507" s="9"/>
       <c r="J507" s="11"/>
       <c r="K507" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40"/>
       <c r="B508" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C508" s="13"/>
       <c r="D508" s="39"/>
@@ -15893,7 +15896,7 @@
         <v>43891</v>
       </c>
       <c r="B510" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C510" s="13">
         <v>1.25</v>
@@ -15979,7 +15982,7 @@
         <v>44013</v>
       </c>
       <c r="B514" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C514" s="13">
         <v>1.25</v>
@@ -15995,7 +15998,7 @@
       <c r="I514" s="9"/>
       <c r="J514" s="11"/>
       <c r="K514" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.25">
@@ -16083,7 +16086,7 @@
         <v>44166</v>
       </c>
       <c r="B519" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C519" s="13">
         <v>1.25</v>
@@ -16104,7 +16107,7 @@
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B520" s="20"/>
       <c r="C520" s="13"/>
@@ -16245,7 +16248,7 @@
         <v>44378</v>
       </c>
       <c r="B527" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C527" s="13">
         <v>1.25</v>
@@ -16309,7 +16312,7 @@
         <v>44470</v>
       </c>
       <c r="B530" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C530" s="13">
         <v>1.25</v>
@@ -16333,7 +16336,7 @@
     <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40"/>
       <c r="B531" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C531" s="13"/>
       <c r="D531" s="39">
@@ -16349,13 +16352,13 @@
       <c r="I531" s="9"/>
       <c r="J531" s="11"/>
       <c r="K531" s="49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40"/>
       <c r="B532" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C532" s="13"/>
       <c r="D532" s="39"/>
@@ -16369,7 +16372,7 @@
       <c r="I532" s="9"/>
       <c r="J532" s="11"/>
       <c r="K532" s="49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.25">
@@ -16397,7 +16400,7 @@
         <v>44531</v>
       </c>
       <c r="B534" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C534" s="13">
         <v>1.25</v>
@@ -16415,12 +16418,12 @@
       <c r="I534" s="9"/>
       <c r="J534" s="11"/>
       <c r="K534" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B535" s="20"/>
       <c r="C535" s="13"/>
@@ -16441,7 +16444,7 @@
         <v>44562</v>
       </c>
       <c r="B536" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C536" s="13">
         <v>1.25</v>
@@ -16567,7 +16570,7 @@
         <v>44743</v>
       </c>
       <c r="B542" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C542" s="13">
         <v>1.25</v>
@@ -16591,7 +16594,7 @@
     <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40"/>
       <c r="B543" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C543" s="13"/>
       <c r="D543" s="39"/>
@@ -16605,7 +16608,7 @@
       <c r="I543" s="9"/>
       <c r="J543" s="11"/>
       <c r="K543" s="49" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.25">
@@ -16613,7 +16616,7 @@
         <v>44774</v>
       </c>
       <c r="B544" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C544" s="13">
         <v>1.25</v>
@@ -16631,7 +16634,7 @@
       <c r="I544" s="9"/>
       <c r="J544" s="11"/>
       <c r="K544" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.25">
@@ -16659,7 +16662,7 @@
         <v>44835</v>
       </c>
       <c r="B546" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C546" s="13">
         <v>1.25</v>
@@ -16677,13 +16680,13 @@
       <c r="I546" s="9"/>
       <c r="J546" s="11"/>
       <c r="K546" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40"/>
       <c r="B547" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C547" s="13"/>
       <c r="D547" s="39"/>
@@ -16705,7 +16708,7 @@
     <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40"/>
       <c r="B548" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C548" s="13"/>
       <c r="D548" s="39"/>
@@ -16725,7 +16728,7 @@
     <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40"/>
       <c r="B549" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C549" s="13"/>
       <c r="D549" s="39"/>
@@ -16747,7 +16750,7 @@
         <v>44866</v>
       </c>
       <c r="B550" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C550" s="13">
         <v>1.25</v>
@@ -16771,7 +16774,7 @@
     <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40"/>
       <c r="B551" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C551" s="13"/>
       <c r="D551" s="39"/>
@@ -16787,13 +16790,13 @@
       <c r="I551" s="9"/>
       <c r="J551" s="11"/>
       <c r="K551" s="49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40"/>
       <c r="B552" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C552" s="13"/>
       <c r="D552" s="39">
@@ -16809,13 +16812,13 @@
       <c r="I552" s="9"/>
       <c r="J552" s="11"/>
       <c r="K552" s="49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40"/>
       <c r="B553" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C553" s="13"/>
       <c r="D553" s="39"/>
@@ -16837,7 +16840,7 @@
     <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40"/>
       <c r="B554" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C554" s="13"/>
       <c r="D554" s="39"/>
@@ -16861,7 +16864,7 @@
         <v>44896</v>
       </c>
       <c r="B555" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C555" s="13">
         <v>1.25</v>
@@ -16879,13 +16882,13 @@
       <c r="I555" s="9"/>
       <c r="J555" s="11"/>
       <c r="K555" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40"/>
       <c r="B556" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C556" s="13"/>
       <c r="D556" s="39"/>
@@ -16901,13 +16904,13 @@
       <c r="I556" s="9"/>
       <c r="J556" s="11"/>
       <c r="K556" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40"/>
       <c r="B557" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C557" s="13"/>
       <c r="D557" s="39"/>
@@ -16923,12 +16926,12 @@
       <c r="I557" s="9"/>
       <c r="J557" s="11"/>
       <c r="K557" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B558" s="20"/>
       <c r="C558" s="13"/>
@@ -16949,7 +16952,7 @@
         <v>44927</v>
       </c>
       <c r="B559" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C559" s="13">
         <v>1.25</v>
@@ -16967,7 +16970,7 @@
       <c r="I559" s="9"/>
       <c r="J559" s="11"/>
       <c r="K559" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.25">
@@ -16975,7 +16978,7 @@
         <v>44958</v>
       </c>
       <c r="B560" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C560" s="13">
         <v>1.25</v>
@@ -16993,13 +16996,13 @@
       <c r="I560" s="9"/>
       <c r="J560" s="11"/>
       <c r="K560" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40"/>
       <c r="B561" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C561" s="13"/>
       <c r="D561" s="39"/>
@@ -17021,7 +17024,7 @@
     <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40"/>
       <c r="B562" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C562" s="13"/>
       <c r="D562" s="39"/>
@@ -17037,7 +17040,7 @@
       <c r="I562" s="9"/>
       <c r="J562" s="11"/>
       <c r="K562" s="49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.25">
@@ -17045,7 +17048,7 @@
         <v>44986</v>
       </c>
       <c r="B563" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C563" s="13">
         <v>1.25</v>
@@ -17063,13 +17066,13 @@
       <c r="I563" s="9"/>
       <c r="J563" s="11"/>
       <c r="K563" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40"/>
       <c r="B564" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C564" s="13"/>
       <c r="D564" s="39"/>
@@ -17085,7 +17088,7 @@
       <c r="I564" s="9"/>
       <c r="J564" s="11"/>
       <c r="K564" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.25">
@@ -17093,7 +17096,7 @@
         <v>45017</v>
       </c>
       <c r="B565" s="20" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C565" s="13">
         <v>1.25</v>
@@ -17111,14 +17114,16 @@
       <c r="I565" s="9"/>
       <c r="J565" s="11"/>
       <c r="K565" s="20" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
         <v>45047</v>
       </c>
-      <c r="B566" s="20"/>
+      <c r="B566" s="20" t="s">
+        <v>92</v>
+      </c>
       <c r="C566" s="13"/>
       <c r="D566" s="39"/>
       <c r="E566" s="9"/>
@@ -17127,10 +17132,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H566" s="39"/>
+      <c r="H566" s="39">
+        <v>2</v>
+      </c>
       <c r="I566" s="9"/>
       <c r="J566" s="11"/>
-      <c r="K566" s="20"/>
+      <c r="K566" s="20" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">

--- a/REGULAR/OJT/NEW DONE/DIMARANAN, GREGORIA.xlsx
+++ b/REGULAR/OJT/NEW DONE/DIMARANAN, GREGORIA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="466">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1423,6 +1423,15 @@
   </si>
   <si>
     <t>5/15,16/2023</t>
+  </si>
+  <si>
+    <t>5/25-26/2023</t>
+  </si>
+  <si>
+    <t>6/8-9/2023</t>
+  </si>
+  <si>
+    <t>06/2,5/2023</t>
   </si>
 </sst>
 </file>
@@ -2306,7 +2315,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2349,7 +2358,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2413,7 +2422,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2473,7 +2482,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2539,7 +2548,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2602,7 +2611,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2700,7 +2709,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2759,7 +2768,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2824,7 +2833,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2867,7 +2876,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2942,7 +2951,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3128,7 +3137,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3194,7 +3203,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3252,7 +3261,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3318,7 +3327,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3374,7 +3383,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3449,7 +3458,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3492,7 +3501,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3558,7 +3567,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3614,7 +3623,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3712,7 +3721,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3775,7 +3784,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3841,8 +3850,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K609" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K609"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K611" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K611"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -4220,12 +4229,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K609"/>
+  <dimension ref="A2:K611"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A555" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A557" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="B567" sqref="B567"/>
+      <selection pane="bottomLeft" activeCell="K570" sqref="K570"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4396,7 +4405,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>51.125</v>
+        <v>47.125</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -17142,10 +17151,10 @@
       </c>
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A567" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B567" s="20"/>
+      <c r="A567" s="40"/>
+      <c r="B567" s="20" t="s">
+        <v>92</v>
+      </c>
       <c r="C567" s="13"/>
       <c r="D567" s="39"/>
       <c r="E567" s="9"/>
@@ -17154,16 +17163,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H567" s="39"/>
+      <c r="H567" s="39">
+        <v>2</v>
+      </c>
       <c r="I567" s="9"/>
       <c r="J567" s="11"/>
-      <c r="K567" s="20"/>
+      <c r="K567" s="20" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A568" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B568" s="20"/>
+      <c r="A568" s="40"/>
+      <c r="B568" s="20" t="s">
+        <v>351</v>
+      </c>
       <c r="C568" s="13"/>
       <c r="D568" s="39"/>
       <c r="E568" s="9"/>
@@ -17175,13 +17188,17 @@
       <c r="H568" s="39"/>
       <c r="I568" s="9"/>
       <c r="J568" s="11"/>
-      <c r="K568" s="20"/>
+      <c r="K568" s="20" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B569" s="20"/>
+        <v>45078</v>
+      </c>
+      <c r="B569" s="20" t="s">
+        <v>92</v>
+      </c>
       <c r="C569" s="13"/>
       <c r="D569" s="39"/>
       <c r="E569" s="9"/>
@@ -17190,14 +17207,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H569" s="39"/>
+      <c r="H569" s="39">
+        <v>2</v>
+      </c>
       <c r="I569" s="9"/>
       <c r="J569" s="11"/>
-      <c r="K569" s="20"/>
+      <c r="K569" s="20" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
-        <v>45170</v>
+        <v>45108</v>
       </c>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -17215,7 +17236,7 @@
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
-        <v>45200</v>
+        <v>45139</v>
       </c>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -17233,7 +17254,7 @@
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
-        <v>45231</v>
+        <v>45170</v>
       </c>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
@@ -17251,7 +17272,7 @@
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
-        <v>45261</v>
+        <v>45200</v>
       </c>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -17269,7 +17290,7 @@
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
-        <v>45292</v>
+        <v>45231</v>
       </c>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
@@ -17287,7 +17308,7 @@
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40">
-        <v>45323</v>
+        <v>45261</v>
       </c>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
@@ -17305,7 +17326,7 @@
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -17323,7 +17344,7 @@
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -17341,7 +17362,7 @@
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -17359,7 +17380,7 @@
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
@@ -17377,7 +17398,7 @@
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
@@ -17395,7 +17416,7 @@
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
@@ -17413,7 +17434,7 @@
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
@@ -17431,7 +17452,7 @@
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B583" s="20"/>
       <c r="C583" s="13"/>
@@ -17449,7 +17470,7 @@
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
@@ -17467,7 +17488,7 @@
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
@@ -17485,7 +17506,7 @@
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
@@ -17503,7 +17524,7 @@
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
@@ -17521,7 +17542,7 @@
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
@@ -17539,7 +17560,7 @@
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
@@ -17557,7 +17578,7 @@
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40">
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
@@ -17575,7 +17596,7 @@
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
@@ -17593,7 +17614,7 @@
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40">
-        <v>45839</v>
+        <v>45778</v>
       </c>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -17611,7 +17632,7 @@
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
-        <v>45870</v>
+        <v>45809</v>
       </c>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -17629,7 +17650,7 @@
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
-        <v>45901</v>
+        <v>45839</v>
       </c>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -17647,7 +17668,7 @@
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
-        <v>45931</v>
+        <v>45870</v>
       </c>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -17665,7 +17686,7 @@
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
-        <v>45962</v>
+        <v>45901</v>
       </c>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -17683,7 +17704,7 @@
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
-        <v>45992</v>
+        <v>45931</v>
       </c>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
@@ -17701,7 +17722,7 @@
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40">
-        <v>46023</v>
+        <v>45962</v>
       </c>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -17719,7 +17740,7 @@
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
-        <v>46054</v>
+        <v>45992</v>
       </c>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
@@ -17737,7 +17758,7 @@
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
-        <v>46082</v>
+        <v>46023</v>
       </c>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -17755,7 +17776,7 @@
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40">
-        <v>46113</v>
+        <v>46054</v>
       </c>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -17772,7 +17793,9 @@
       <c r="K601" s="20"/>
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A602" s="40"/>
+      <c r="A602" s="40">
+        <v>46082</v>
+      </c>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
       <c r="D602" s="39"/>
@@ -17788,7 +17811,9 @@
       <c r="K602" s="20"/>
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A603" s="40"/>
+      <c r="A603" s="40">
+        <v>46113</v>
+      </c>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
       <c r="D603" s="39"/>
@@ -17884,20 +17909,52 @@
       <c r="K608" s="20"/>
     </row>
     <row r="609" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A609" s="41"/>
-      <c r="B609" s="15"/>
-      <c r="C609" s="42"/>
-      <c r="D609" s="43"/>
+      <c r="A609" s="40"/>
+      <c r="B609" s="20"/>
+      <c r="C609" s="13"/>
+      <c r="D609" s="39"/>
       <c r="E609" s="9"/>
-      <c r="F609" s="15"/>
-      <c r="G609" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H609" s="43"/>
+      <c r="F609" s="20"/>
+      <c r="G609" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H609" s="39"/>
       <c r="I609" s="9"/>
-      <c r="J609" s="12"/>
-      <c r="K609" s="15"/>
+      <c r="J609" s="11"/>
+      <c r="K609" s="20"/>
+    </row>
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A610" s="40"/>
+      <c r="B610" s="20"/>
+      <c r="C610" s="13"/>
+      <c r="D610" s="39"/>
+      <c r="E610" s="9"/>
+      <c r="F610" s="20"/>
+      <c r="G610" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H610" s="39"/>
+      <c r="I610" s="9"/>
+      <c r="J610" s="11"/>
+      <c r="K610" s="20"/>
+    </row>
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A611" s="41"/>
+      <c r="B611" s="15"/>
+      <c r="C611" s="42"/>
+      <c r="D611" s="43"/>
+      <c r="E611" s="9"/>
+      <c r="F611" s="15"/>
+      <c r="G611" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H611" s="43"/>
+      <c r="I611" s="9"/>
+      <c r="J611" s="12"/>
+      <c r="K611" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/OJT/NEW DONE/DIMARANAN, GREGORIA.xlsx
+++ b/REGULAR/OJT/NEW DONE/DIMARANAN, GREGORIA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="466">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2315,7 +2315,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2358,7 +2358,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2422,7 +2422,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2482,7 +2482,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2548,7 +2548,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2611,7 +2611,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2709,7 +2709,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2768,7 +2768,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2833,7 +2833,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2876,7 +2876,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2951,7 +2951,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3137,7 +3137,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3203,7 +3203,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3261,7 +3261,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3327,7 +3327,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3383,7 +3383,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3458,7 +3458,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3501,7 +3501,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3567,7 +3567,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3623,7 +3623,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3721,7 +3721,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3784,7 +3784,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3850,8 +3850,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K611" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K611"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K612" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K612"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -4229,12 +4229,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K611"/>
+  <dimension ref="A2:K612"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A557" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="K570" sqref="K570"/>
+      <selection pane="bottomLeft" activeCell="K571" sqref="K571"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4395,7 +4395,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>106.94299999999998</v>
+        <v>108.19299999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4405,7 +4405,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>47.125</v>
+        <v>47.375</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -17133,13 +17133,15 @@
       <c r="B566" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="C566" s="13"/>
+      <c r="C566" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D566" s="39"/>
       <c r="E566" s="9"/>
       <c r="F566" s="20"/>
-      <c r="G566" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G566" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H566" s="39">
         <v>2</v>
@@ -17217,10 +17219,10 @@
       </c>
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A570" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B570" s="20"/>
+      <c r="A570" s="40"/>
+      <c r="B570" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C570" s="13"/>
       <c r="D570" s="39"/>
       <c r="E570" s="9"/>
@@ -17229,14 +17231,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H570" s="39"/>
+      <c r="H570" s="39">
+        <v>1</v>
+      </c>
       <c r="I570" s="9"/>
       <c r="J570" s="11"/>
-      <c r="K570" s="20"/>
+      <c r="K570" s="49">
+        <v>45092</v>
+      </c>
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -17254,7 +17260,7 @@
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
@@ -17272,7 +17278,7 @@
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -17290,7 +17296,7 @@
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
@@ -17308,7 +17314,7 @@
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
@@ -17326,7 +17332,7 @@
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -17344,7 +17350,7 @@
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -17362,7 +17368,7 @@
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -17380,7 +17386,7 @@
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
@@ -17398,7 +17404,7 @@
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
@@ -17416,7 +17422,7 @@
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
@@ -17434,7 +17440,7 @@
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
@@ -17452,7 +17458,7 @@
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B583" s="20"/>
       <c r="C583" s="13"/>
@@ -17470,7 +17476,7 @@
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
@@ -17488,7 +17494,7 @@
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
@@ -17506,7 +17512,7 @@
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
@@ -17524,7 +17530,7 @@
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
@@ -17542,7 +17548,7 @@
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
@@ -17560,7 +17566,7 @@
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
@@ -17578,7 +17584,7 @@
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
@@ -17596,7 +17602,7 @@
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
@@ -17614,7 +17620,7 @@
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -17632,7 +17638,7 @@
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -17650,7 +17656,7 @@
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -17668,7 +17674,7 @@
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -17686,7 +17692,7 @@
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -17704,7 +17710,7 @@
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
@@ -17722,7 +17728,7 @@
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -17740,7 +17746,7 @@
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
@@ -17758,7 +17764,7 @@
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -17776,7 +17782,7 @@
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -17794,7 +17800,7 @@
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -17812,7 +17818,7 @@
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -17829,7 +17835,9 @@
       <c r="K603" s="20"/>
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A604" s="40"/>
+      <c r="A604" s="40">
+        <v>46113</v>
+      </c>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
       <c r="D604" s="39"/>
@@ -17941,20 +17949,36 @@
       <c r="K610" s="20"/>
     </row>
     <row r="611" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A611" s="41"/>
-      <c r="B611" s="15"/>
-      <c r="C611" s="42"/>
-      <c r="D611" s="43"/>
+      <c r="A611" s="40"/>
+      <c r="B611" s="20"/>
+      <c r="C611" s="13"/>
+      <c r="D611" s="39"/>
       <c r="E611" s="9"/>
-      <c r="F611" s="15"/>
-      <c r="G611" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H611" s="43"/>
+      <c r="F611" s="20"/>
+      <c r="G611" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H611" s="39"/>
       <c r="I611" s="9"/>
-      <c r="J611" s="12"/>
-      <c r="K611" s="15"/>
+      <c r="J611" s="11"/>
+      <c r="K611" s="20"/>
+    </row>
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A612" s="41"/>
+      <c r="B612" s="15"/>
+      <c r="C612" s="42"/>
+      <c r="D612" s="43"/>
+      <c r="E612" s="9"/>
+      <c r="F612" s="15"/>
+      <c r="G612" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H612" s="43"/>
+      <c r="I612" s="9"/>
+      <c r="J612" s="12"/>
+      <c r="K612" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
